--- a/Survivor_Contestants.xlsx
+++ b/Survivor_Contestants.xlsx
@@ -24015,7 +24015,7 @@
         <v>1</v>
       </c>
       <c r="O272" s="9">
-        <v>297</v>
+        <v>197</v>
       </c>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -29860,7 +29860,7 @@
         <v>1</v>
       </c>
       <c r="O405" s="9">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="406" ht="20.05" customHeight="1">
@@ -39739,7 +39739,7 @@
         <v>1</v>
       </c>
       <c r="O630" s="9">
-        <v>156</v>
+        <v>516</v>
       </c>
     </row>
     <row r="631" ht="20.05" customHeight="1">

--- a/Survivor_Contestants.xlsx
+++ b/Survivor_Contestants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1624">
   <si>
     <t>Survivor Contestants</t>
   </si>
@@ -8436,9 +8436,6 @@
   </si>
   <si>
     <t>June 11, 1955 (age 65)</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>January 5, 1968 (age 52)</t>
@@ -45275,7 +45272,7 @@
         <v>1025</v>
       </c>
       <c r="D18" t="s" s="41">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1">
@@ -45284,7 +45281,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D19" t="s" s="6">
         <v>1010</v>
@@ -45296,10 +45293,10 @@
         <v>68</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D20" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1">
@@ -45308,7 +45305,7 @@
         <v>70</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D21" t="s" s="6">
         <v>1010</v>
@@ -45320,10 +45317,10 @@
         <v>72</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D22" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="23" ht="31.35" customHeight="1">
@@ -45332,7 +45329,7 @@
         <v>74</v>
       </c>
       <c r="C23" t="s" s="6">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D23" t="s" s="6">
         <v>1010</v>
@@ -45344,7 +45341,7 @@
         <v>76</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D24" t="s" s="6">
         <v>1010</v>
@@ -45356,10 +45353,10 @@
         <v>78</v>
       </c>
       <c r="C25" t="s" s="6">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D25" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="26" ht="31.35" customHeight="1">
@@ -45368,10 +45365,10 @@
         <v>79</v>
       </c>
       <c r="C26" t="s" s="6">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D26" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" ht="13.35" customHeight="1">
@@ -45380,7 +45377,7 @@
         <v>81</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D27" t="s" s="6">
         <v>1010</v>
@@ -45392,10 +45389,10 @@
         <v>83</v>
       </c>
       <c r="C28" t="s" s="6">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D28" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="29" ht="13.35" customHeight="1">
@@ -45404,7 +45401,7 @@
         <v>85</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D29" t="s" s="6">
         <v>1010</v>
@@ -45416,10 +45413,10 @@
         <v>87</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D30" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="31" ht="31.35" customHeight="1">
@@ -45428,7 +45425,7 @@
         <v>89</v>
       </c>
       <c r="C31" t="s" s="6">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D31" t="s" s="6">
         <v>1010</v>
@@ -45440,7 +45437,7 @@
         <v>91</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D32" t="s" s="6">
         <v>1010</v>
@@ -45452,10 +45449,10 @@
         <v>93</v>
       </c>
       <c r="C33" t="s" s="6">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D33" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="34" ht="13.35" customHeight="1">
@@ -45464,10 +45461,10 @@
         <v>95</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D34" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35" ht="31.35" customHeight="1">
@@ -45476,10 +45473,10 @@
         <v>97</v>
       </c>
       <c r="C35" t="s" s="6">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D35" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36" ht="13.35" customHeight="1">
@@ -45488,7 +45485,7 @@
         <v>99</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D36" t="s" s="6">
         <v>1010</v>
@@ -45500,10 +45497,10 @@
         <v>101</v>
       </c>
       <c r="C37" t="s" s="6">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D37" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" ht="31.35" customHeight="1">
@@ -45512,7 +45509,7 @@
         <v>103</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D38" t="s" s="6">
         <v>1010</v>
@@ -45524,10 +45521,10 @@
         <v>104</v>
       </c>
       <c r="C39" t="s" s="6">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D39" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" ht="31.35" customHeight="1">
@@ -45536,7 +45533,7 @@
         <v>106</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D40" t="s" s="6">
         <v>1010</v>
@@ -45548,10 +45545,10 @@
         <v>108</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D41" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="42" ht="31.35" customHeight="1">
@@ -45560,7 +45557,7 @@
         <v>110</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D42" t="s" s="6">
         <v>1010</v>
@@ -45572,7 +45569,7 @@
         <v>111</v>
       </c>
       <c r="C43" t="s" s="6">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D43" t="s" s="6">
         <v>1010</v>
@@ -45584,10 +45581,10 @@
         <v>113</v>
       </c>
       <c r="C44" t="s" s="6">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D44" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" ht="13.35" customHeight="1">
@@ -45596,7 +45593,7 @@
         <v>115</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D45" t="s" s="6">
         <v>1010</v>
@@ -45608,7 +45605,7 @@
         <v>117</v>
       </c>
       <c r="C46" t="s" s="6">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D46" t="s" s="6">
         <v>1010</v>
@@ -45620,7 +45617,7 @@
         <v>119</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D47" t="s" s="6">
         <v>1010</v>
@@ -45632,10 +45629,10 @@
         <v>121</v>
       </c>
       <c r="C48" t="s" s="6">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D48" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="49" ht="31.35" customHeight="1">
@@ -45644,7 +45641,7 @@
         <v>123</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D49" t="s" s="6">
         <v>1010</v>
@@ -45656,7 +45653,7 @@
         <v>124</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D50" t="s" s="6">
         <v>1010</v>
@@ -45668,10 +45665,10 @@
         <v>126</v>
       </c>
       <c r="C51" t="s" s="6">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D51" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="52" ht="13.35" customHeight="1">
@@ -45680,7 +45677,7 @@
         <v>128</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D52" t="s" s="6">
         <v>1010</v>
@@ -45692,10 +45689,10 @@
         <v>130</v>
       </c>
       <c r="C53" t="s" s="6">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D53" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" ht="13.35" customHeight="1">
@@ -45704,7 +45701,7 @@
         <v>132</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D54" t="s" s="6">
         <v>1010</v>
@@ -45716,10 +45713,10 @@
         <v>133</v>
       </c>
       <c r="C55" t="s" s="6">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D55" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="56" ht="31.35" customHeight="1">
@@ -45728,7 +45725,7 @@
         <v>135</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D56" t="s" s="6">
         <v>1010</v>
@@ -45740,7 +45737,7 @@
         <v>137</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D57" t="s" s="6">
         <v>1010</v>
@@ -45752,10 +45749,10 @@
         <v>139</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D58" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="59" ht="13.35" customHeight="1">
@@ -45764,10 +45761,10 @@
         <v>141</v>
       </c>
       <c r="C59" t="s" s="6">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D59" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="60" ht="13.35" customHeight="1">
@@ -45776,7 +45773,7 @@
         <v>143</v>
       </c>
       <c r="C60" t="s" s="6">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D60" t="s" s="6">
         <v>1010</v>
@@ -45788,7 +45785,7 @@
         <v>145</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D61" t="s" s="6">
         <v>1010</v>
@@ -45800,7 +45797,7 @@
         <v>146</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D62" t="s" s="6">
         <v>1010</v>
@@ -45812,10 +45809,10 @@
         <v>148</v>
       </c>
       <c r="C63" t="s" s="6">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D63" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" ht="31.35" customHeight="1">
@@ -45824,10 +45821,10 @@
         <v>150</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D64" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="65" ht="31.35" customHeight="1">
@@ -45836,10 +45833,10 @@
         <v>152</v>
       </c>
       <c r="C65" t="s" s="6">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D65" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" ht="31.35" customHeight="1">
@@ -45848,7 +45845,7 @@
         <v>154</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D66" t="s" s="6">
         <v>1010</v>
@@ -45860,10 +45857,10 @@
         <v>156</v>
       </c>
       <c r="C67" t="s" s="6">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D67" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="68" ht="31.35" customHeight="1">
@@ -45872,7 +45869,7 @@
         <v>158</v>
       </c>
       <c r="C68" t="s" s="6">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D68" t="s" s="6">
         <v>1010</v>
@@ -45884,10 +45881,10 @@
         <v>159</v>
       </c>
       <c r="C69" t="s" s="6">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D69" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="70" ht="31.35" customHeight="1">
@@ -45896,10 +45893,10 @@
         <v>161</v>
       </c>
       <c r="C70" t="s" s="6">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D70" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="71" ht="31.35" customHeight="1">
@@ -45908,7 +45905,7 @@
         <v>163</v>
       </c>
       <c r="C71" t="s" s="6">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D71" t="s" s="6">
         <v>1010</v>
@@ -45920,10 +45917,10 @@
         <v>165</v>
       </c>
       <c r="C72" t="s" s="6">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D72" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="73" ht="13.35" customHeight="1">
@@ -45932,10 +45929,10 @@
         <v>166</v>
       </c>
       <c r="C73" t="s" s="6">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D73" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="74" ht="13.35" customHeight="1">
@@ -45944,7 +45941,7 @@
         <v>168</v>
       </c>
       <c r="C74" t="s" s="6">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D74" t="s" s="6">
         <v>1010</v>
@@ -45956,10 +45953,10 @@
         <v>170</v>
       </c>
       <c r="C75" t="s" s="6">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D75" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="76" ht="31.35" customHeight="1">
@@ -45968,7 +45965,7 @@
         <v>172</v>
       </c>
       <c r="C76" t="s" s="6">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D76" t="s" s="6">
         <v>1010</v>
@@ -45980,7 +45977,7 @@
         <v>174</v>
       </c>
       <c r="C77" t="s" s="6">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D77" t="s" s="6">
         <v>1010</v>
@@ -45992,10 +45989,10 @@
         <v>176</v>
       </c>
       <c r="C78" t="s" s="6">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D78" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="79" ht="31.35" customHeight="1">
@@ -46004,10 +46001,10 @@
         <v>178</v>
       </c>
       <c r="C79" t="s" s="6">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D79" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="80" ht="31.35" customHeight="1">
@@ -46016,7 +46013,7 @@
         <v>180</v>
       </c>
       <c r="C80" t="s" s="6">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D80" t="s" s="6">
         <v>1010</v>
@@ -46028,7 +46025,7 @@
         <v>182</v>
       </c>
       <c r="C81" t="s" s="6">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D81" t="s" s="6">
         <v>1010</v>
@@ -46040,7 +46037,7 @@
         <v>184</v>
       </c>
       <c r="C82" t="s" s="6">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D82" t="s" s="6">
         <v>1010</v>
@@ -46052,10 +46049,10 @@
         <v>186</v>
       </c>
       <c r="C83" t="s" s="6">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D83" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="84" ht="31.35" customHeight="1">
@@ -46064,7 +46061,7 @@
         <v>188</v>
       </c>
       <c r="C84" t="s" s="6">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D84" t="s" s="6">
         <v>1010</v>
@@ -46076,10 +46073,10 @@
         <v>190</v>
       </c>
       <c r="C85" t="s" s="6">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D85" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="86" ht="13.35" customHeight="1">
@@ -46088,10 +46085,10 @@
         <v>192</v>
       </c>
       <c r="C86" t="s" s="6">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D86" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87" ht="13.35" customHeight="1">
@@ -46100,10 +46097,10 @@
         <v>194</v>
       </c>
       <c r="C87" t="s" s="6">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D87" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="88" ht="31.35" customHeight="1">
@@ -46112,7 +46109,7 @@
         <v>195</v>
       </c>
       <c r="C88" t="s" s="6">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D88" t="s" s="6">
         <v>1010</v>
@@ -46124,7 +46121,7 @@
         <v>197</v>
       </c>
       <c r="C89" t="s" s="6">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D89" t="s" s="6">
         <v>1010</v>
@@ -46136,10 +46133,10 @@
         <v>199</v>
       </c>
       <c r="C90" t="s" s="6">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D90" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="91" ht="13.35" customHeight="1">
@@ -46148,7 +46145,7 @@
         <v>201</v>
       </c>
       <c r="C91" t="s" s="6">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D91" t="s" s="6">
         <v>1010</v>
@@ -46160,10 +46157,10 @@
         <v>202</v>
       </c>
       <c r="C92" t="s" s="6">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D92" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="93" ht="31.35" customHeight="1">
@@ -46172,10 +46169,10 @@
         <v>204</v>
       </c>
       <c r="C93" t="s" s="6">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D93" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94" ht="31.35" customHeight="1">
@@ -46184,7 +46181,7 @@
         <v>206</v>
       </c>
       <c r="C94" t="s" s="6">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D94" t="s" s="6">
         <v>1010</v>
@@ -46196,7 +46193,7 @@
         <v>208</v>
       </c>
       <c r="C95" t="s" s="6">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D95" t="s" s="6">
         <v>1010</v>
@@ -46208,7 +46205,7 @@
         <v>210</v>
       </c>
       <c r="C96" t="s" s="6">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D96" t="s" s="6">
         <v>1010</v>
@@ -46220,10 +46217,10 @@
         <v>212</v>
       </c>
       <c r="C97" t="s" s="6">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D97" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="98" ht="31.35" customHeight="1">
@@ -46232,10 +46229,10 @@
         <v>214</v>
       </c>
       <c r="C98" t="s" s="6">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D98" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="99" ht="13.35" customHeight="1">
@@ -46244,7 +46241,7 @@
         <v>216</v>
       </c>
       <c r="C99" t="s" s="6">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D99" t="s" s="6">
         <v>1010</v>
@@ -46256,10 +46253,10 @@
         <v>217</v>
       </c>
       <c r="C100" t="s" s="6">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D100" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="101" ht="31.35" customHeight="1">
@@ -46268,10 +46265,10 @@
         <v>218</v>
       </c>
       <c r="C101" t="s" s="6">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D101" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="102" ht="31.35" customHeight="1">
@@ -46280,7 +46277,7 @@
         <v>220</v>
       </c>
       <c r="C102" t="s" s="6">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D102" t="s" s="6">
         <v>1010</v>
@@ -46292,7 +46289,7 @@
         <v>221</v>
       </c>
       <c r="C103" t="s" s="6">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D103" t="s" s="6">
         <v>1010</v>
@@ -46304,7 +46301,7 @@
         <v>222</v>
       </c>
       <c r="C104" t="s" s="6">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D104" t="s" s="6">
         <v>1010</v>
@@ -46316,7 +46313,7 @@
         <v>224</v>
       </c>
       <c r="C105" t="s" s="6">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D105" t="s" s="6">
         <v>1010</v>
@@ -46328,7 +46325,7 @@
         <v>226</v>
       </c>
       <c r="C106" t="s" s="6">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D106" t="s" s="6">
         <v>1010</v>
@@ -46340,10 +46337,10 @@
         <v>228</v>
       </c>
       <c r="C107" t="s" s="6">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D107" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="108" ht="31.35" customHeight="1">
@@ -46352,10 +46349,10 @@
         <v>230</v>
       </c>
       <c r="C108" t="s" s="6">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D108" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="109" ht="13.35" customHeight="1">
@@ -46364,7 +46361,7 @@
         <v>231</v>
       </c>
       <c r="C109" t="s" s="6">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D109" t="s" s="6">
         <v>1010</v>
@@ -46376,10 +46373,10 @@
         <v>232</v>
       </c>
       <c r="C110" t="s" s="6">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D110" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="111" ht="13.35" customHeight="1">
@@ -46388,7 +46385,7 @@
         <v>234</v>
       </c>
       <c r="C111" t="s" s="6">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D111" t="s" s="6">
         <v>1010</v>
@@ -46400,10 +46397,10 @@
         <v>235</v>
       </c>
       <c r="C112" t="s" s="6">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D112" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="113" ht="13.35" customHeight="1">
@@ -46412,10 +46409,10 @@
         <v>237</v>
       </c>
       <c r="C113" t="s" s="6">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D113" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="114" ht="31.35" customHeight="1">
@@ -46424,10 +46421,10 @@
         <v>93</v>
       </c>
       <c r="C114" t="s" s="16">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D114" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="115" ht="31.35" customHeight="1">
@@ -46448,10 +46445,10 @@
         <v>212</v>
       </c>
       <c r="C116" t="s" s="16">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D116" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="117" ht="31.35" customHeight="1">
@@ -46460,7 +46457,7 @@
         <v>208</v>
       </c>
       <c r="C117" t="s" s="16">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D117" t="s" s="16">
         <v>1010</v>
@@ -46487,7 +46484,7 @@
         <v>1021</v>
       </c>
       <c r="D119" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="120" ht="13.35" customHeight="1">
@@ -46496,7 +46493,7 @@
         <v>91</v>
       </c>
       <c r="C120" t="s" s="16">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D120" t="s" s="16">
         <v>1010</v>
@@ -46508,7 +46505,7 @@
         <v>123</v>
       </c>
       <c r="C121" t="s" s="16">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D121" t="s" s="16">
         <v>1010</v>
@@ -46520,10 +46517,10 @@
         <v>79</v>
       </c>
       <c r="C122" t="s" s="16">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D122" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="123" ht="13.35" customHeight="1">
@@ -46532,7 +46529,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s" s="16">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D123" t="s" s="16">
         <v>1010</v>
@@ -46544,10 +46541,10 @@
         <v>148</v>
       </c>
       <c r="C124" t="s" s="16">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D124" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="125" ht="13.35" customHeight="1">
@@ -46556,10 +46553,10 @@
         <v>78</v>
       </c>
       <c r="C125" t="s" s="16">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D125" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="126" ht="31.35" customHeight="1">
@@ -46568,10 +46565,10 @@
         <v>165</v>
       </c>
       <c r="C126" t="s" s="16">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D126" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="127" ht="31.35" customHeight="1">
@@ -46580,7 +46577,7 @@
         <v>117</v>
       </c>
       <c r="C127" t="s" s="16">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D127" t="s" s="16">
         <v>1010</v>
@@ -46592,7 +46589,7 @@
         <v>226</v>
       </c>
       <c r="C128" t="s" s="16">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D128" t="s" s="16">
         <v>1010</v>
@@ -46607,7 +46604,7 @@
         <v>1017</v>
       </c>
       <c r="D129" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="130" ht="31.35" customHeight="1">
@@ -46616,7 +46613,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="s" s="16">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D130" t="s" s="16">
         <v>1010</v>
@@ -46628,10 +46625,10 @@
         <v>83</v>
       </c>
       <c r="C131" t="s" s="16">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D131" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="132" ht="31.35" customHeight="1">
@@ -46640,7 +46637,7 @@
         <v>245</v>
       </c>
       <c r="C132" t="s" s="6">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D132" t="s" s="6">
         <v>1010</v>
@@ -46652,10 +46649,10 @@
         <v>247</v>
       </c>
       <c r="C133" t="s" s="6">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D133" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="134" ht="13.35" customHeight="1">
@@ -46664,7 +46661,7 @@
         <v>249</v>
       </c>
       <c r="C134" t="s" s="6">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D134" t="s" s="6">
         <v>1010</v>
@@ -46676,10 +46673,10 @@
         <v>250</v>
       </c>
       <c r="C135" t="s" s="6">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D135" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="136" ht="31.35" customHeight="1">
@@ -46688,7 +46685,7 @@
         <v>251</v>
       </c>
       <c r="C136" t="s" s="6">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D136" t="s" s="6">
         <v>1010</v>
@@ -46700,7 +46697,7 @@
         <v>253</v>
       </c>
       <c r="C137" t="s" s="6">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D137" t="s" s="6">
         <v>1010</v>
@@ -46712,10 +46709,10 @@
         <v>255</v>
       </c>
       <c r="C138" t="s" s="6">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D138" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" ht="31.35" customHeight="1">
@@ -46724,7 +46721,7 @@
         <v>257</v>
       </c>
       <c r="C139" t="s" s="6">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D139" t="s" s="6">
         <v>1010</v>
@@ -46736,7 +46733,7 @@
         <v>258</v>
       </c>
       <c r="C140" t="s" s="6">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D140" t="s" s="6">
         <v>1010</v>
@@ -46748,10 +46745,10 @@
         <v>260</v>
       </c>
       <c r="C141" t="s" s="6">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D141" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="142" ht="13.35" customHeight="1">
@@ -46760,7 +46757,7 @@
         <v>262</v>
       </c>
       <c r="C142" t="s" s="6">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D142" t="s" s="6">
         <v>1010</v>
@@ -46772,10 +46769,10 @@
         <v>264</v>
       </c>
       <c r="C143" t="s" s="6">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D143" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="144" ht="31.35" customHeight="1">
@@ -46784,10 +46781,10 @@
         <v>266</v>
       </c>
       <c r="C144" t="s" s="6">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D144" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="145" ht="31.35" customHeight="1">
@@ -46796,10 +46793,10 @@
         <v>268</v>
       </c>
       <c r="C145" t="s" s="6">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D145" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="146" ht="31.35" customHeight="1">
@@ -46808,10 +46805,10 @@
         <v>270</v>
       </c>
       <c r="C146" t="s" s="6">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D146" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="147" ht="31.35" customHeight="1">
@@ -46820,10 +46817,10 @@
         <v>272</v>
       </c>
       <c r="C147" t="s" s="6">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D147" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="148" ht="31.35" customHeight="1">
@@ -46832,10 +46829,10 @@
         <v>274</v>
       </c>
       <c r="C148" t="s" s="6">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D148" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="149" ht="31.35" customHeight="1">
@@ -46844,7 +46841,7 @@
         <v>276</v>
       </c>
       <c r="C149" t="s" s="6">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D149" t="s" s="6">
         <v>1010</v>
@@ -46856,7 +46853,7 @@
         <v>278</v>
       </c>
       <c r="C150" t="s" s="6">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D150" t="s" s="6">
         <v>1010</v>
@@ -46868,10 +46865,10 @@
         <v>280</v>
       </c>
       <c r="C151" t="s" s="6">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D151" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="152" ht="31.35" customHeight="1">
@@ -46880,10 +46877,10 @@
         <v>283</v>
       </c>
       <c r="C152" t="s" s="6">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D152" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="153" ht="13.35" customHeight="1">
@@ -46892,10 +46889,10 @@
         <v>284</v>
       </c>
       <c r="C153" t="s" s="6">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D153" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="154" ht="31.35" customHeight="1">
@@ -46904,7 +46901,7 @@
         <v>286</v>
       </c>
       <c r="C154" t="s" s="6">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D154" t="s" s="6">
         <v>1010</v>
@@ -46916,10 +46913,10 @@
         <v>288</v>
       </c>
       <c r="C155" t="s" s="6">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D155" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="156" ht="31.35" customHeight="1">
@@ -46928,7 +46925,7 @@
         <v>290</v>
       </c>
       <c r="C156" t="s" s="6">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D156" t="s" s="6">
         <v>1010</v>
@@ -46940,10 +46937,10 @@
         <v>292</v>
       </c>
       <c r="C157" t="s" s="6">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D157" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="158" ht="13.35" customHeight="1">
@@ -46952,7 +46949,7 @@
         <v>294</v>
       </c>
       <c r="C158" t="s" s="6">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D158" t="s" s="6">
         <v>1010</v>
@@ -46964,7 +46961,7 @@
         <v>296</v>
       </c>
       <c r="C159" t="s" s="6">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D159" t="s" s="6">
         <v>1010</v>
@@ -46976,7 +46973,7 @@
         <v>298</v>
       </c>
       <c r="C160" t="s" s="6">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D160" t="s" s="6">
         <v>1010</v>
@@ -46988,7 +46985,7 @@
         <v>299</v>
       </c>
       <c r="C161" t="s" s="6">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D161" t="s" s="6">
         <v>1010</v>
@@ -47000,10 +46997,10 @@
         <v>301</v>
       </c>
       <c r="C162" t="s" s="6">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D162" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="163" ht="31.35" customHeight="1">
@@ -47012,10 +47009,10 @@
         <v>302</v>
       </c>
       <c r="C163" t="s" s="6">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D163" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="164" ht="13.35" customHeight="1">
@@ -47024,7 +47021,7 @@
         <v>304</v>
       </c>
       <c r="C164" t="s" s="6">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D164" t="s" s="6">
         <v>1010</v>
@@ -47036,10 +47033,10 @@
         <v>305</v>
       </c>
       <c r="C165" t="s" s="6">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D165" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="166" ht="31.35" customHeight="1">
@@ -47048,10 +47045,10 @@
         <v>307</v>
       </c>
       <c r="C166" t="s" s="38">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D166" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="167" ht="31.35" customHeight="1">
@@ -47060,7 +47057,7 @@
         <v>309</v>
       </c>
       <c r="C167" t="s" s="6">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D167" t="s" s="6">
         <v>1010</v>
@@ -47072,10 +47069,10 @@
         <v>311</v>
       </c>
       <c r="C168" t="s" s="6">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D168" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="169" ht="13.35" customHeight="1">
@@ -47084,7 +47081,7 @@
         <v>313</v>
       </c>
       <c r="C169" t="s" s="6">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D169" t="s" s="6">
         <v>1010</v>
@@ -47096,7 +47093,7 @@
         <v>315</v>
       </c>
       <c r="C170" t="s" s="6">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D170" t="s" s="6">
         <v>1010</v>
@@ -47108,10 +47105,10 @@
         <v>317</v>
       </c>
       <c r="C171" t="s" s="6">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D171" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="172" ht="31.35" customHeight="1">
@@ -47120,10 +47117,10 @@
         <v>319</v>
       </c>
       <c r="C172" t="s" s="6">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D172" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="173" ht="13.35" customHeight="1">
@@ -47132,10 +47129,10 @@
         <v>321</v>
       </c>
       <c r="C173" t="s" s="6">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D173" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="174" ht="13.35" customHeight="1">
@@ -47144,7 +47141,7 @@
         <v>323</v>
       </c>
       <c r="C174" t="s" s="6">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D174" t="s" s="6">
         <v>1010</v>
@@ -47156,10 +47153,10 @@
         <v>324</v>
       </c>
       <c r="C175" t="s" s="6">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D175" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="176" ht="31.35" customHeight="1">
@@ -47168,7 +47165,7 @@
         <v>326</v>
       </c>
       <c r="C176" t="s" s="6">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D176" t="s" s="6">
         <v>1010</v>
@@ -47180,10 +47177,10 @@
         <v>327</v>
       </c>
       <c r="C177" t="s" s="6">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D177" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="178" ht="31.35" customHeight="1">
@@ -47192,7 +47189,7 @@
         <v>329</v>
       </c>
       <c r="C178" t="s" s="6">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D178" t="s" s="6">
         <v>1010</v>
@@ -47204,7 +47201,7 @@
         <v>298</v>
       </c>
       <c r="C179" t="s" s="16">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D179" t="s" s="16">
         <v>1010</v>
@@ -47216,7 +47213,7 @@
         <v>331</v>
       </c>
       <c r="C180" t="s" s="6">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D180" t="s" s="6">
         <v>1010</v>
@@ -47228,7 +47225,7 @@
         <v>333</v>
       </c>
       <c r="C181" t="s" s="6">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D181" t="s" s="6">
         <v>1010</v>
@@ -47240,7 +47237,7 @@
         <v>335</v>
       </c>
       <c r="C182" t="s" s="6">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D182" t="s" s="6">
         <v>1010</v>
@@ -47252,10 +47249,10 @@
         <v>337</v>
       </c>
       <c r="C183" t="s" s="6">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D183" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="184" ht="31.35" customHeight="1">
@@ -47264,10 +47261,10 @@
         <v>339</v>
       </c>
       <c r="C184" t="s" s="6">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D184" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="185" ht="13.35" customHeight="1">
@@ -47276,7 +47273,7 @@
         <v>341</v>
       </c>
       <c r="C185" t="s" s="6">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D185" t="s" s="6">
         <v>1010</v>
@@ -47288,10 +47285,10 @@
         <v>302</v>
       </c>
       <c r="C186" t="s" s="16">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D186" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="187" ht="13.35" customHeight="1">
@@ -47300,10 +47297,10 @@
         <v>343</v>
       </c>
       <c r="C187" t="s" s="6">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D187" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="188" ht="31.35" customHeight="1">
@@ -47312,10 +47309,10 @@
         <v>345</v>
       </c>
       <c r="C188" t="s" s="6">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D188" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="189" ht="13.35" customHeight="1">
@@ -47324,10 +47321,10 @@
         <v>347</v>
       </c>
       <c r="C189" t="s" s="6">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D189" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="190" ht="31.35" customHeight="1">
@@ -47336,10 +47333,10 @@
         <v>349</v>
       </c>
       <c r="C190" t="s" s="6">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D190" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="191" ht="13.35" customHeight="1">
@@ -47348,10 +47345,10 @@
         <v>350</v>
       </c>
       <c r="C191" t="s" s="6">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D191" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="192" ht="31.35" customHeight="1">
@@ -47360,7 +47357,7 @@
         <v>352</v>
       </c>
       <c r="C192" t="s" s="6">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D192" t="s" s="6">
         <v>1010</v>
@@ -47372,7 +47369,7 @@
         <v>353</v>
       </c>
       <c r="C193" t="s" s="6">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D193" t="s" s="6">
         <v>1010</v>
@@ -47384,7 +47381,7 @@
         <v>355</v>
       </c>
       <c r="C194" t="s" s="6">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D194" t="s" s="6">
         <v>1010</v>
@@ -47396,7 +47393,7 @@
         <v>357</v>
       </c>
       <c r="C195" t="s" s="6">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D195" t="s" s="6">
         <v>1010</v>
@@ -47408,10 +47405,10 @@
         <v>359</v>
       </c>
       <c r="C196" t="s" s="6">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D196" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="197" ht="31.35" customHeight="1">
@@ -47420,7 +47417,7 @@
         <v>360</v>
       </c>
       <c r="C197" t="s" s="6">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D197" t="s" s="6">
         <v>1010</v>
@@ -47432,10 +47429,10 @@
         <v>362</v>
       </c>
       <c r="C198" t="s" s="6">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D198" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="199" ht="31.35" customHeight="1">
@@ -47444,7 +47441,7 @@
         <v>363</v>
       </c>
       <c r="C199" t="s" s="6">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D199" t="s" s="6">
         <v>1010</v>
@@ -47456,10 +47453,10 @@
         <v>364</v>
       </c>
       <c r="C200" t="s" s="6">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D200" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="201" ht="31.35" customHeight="1">
@@ -47468,7 +47465,7 @@
         <v>366</v>
       </c>
       <c r="C201" t="s" s="6">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D201" t="s" s="6">
         <v>1010</v>
@@ -47480,10 +47477,10 @@
         <v>368</v>
       </c>
       <c r="C202" t="s" s="6">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D202" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="203" ht="31.35" customHeight="1">
@@ -47492,7 +47489,7 @@
         <v>370</v>
       </c>
       <c r="C203" t="s" s="6">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D203" t="s" s="6">
         <v>1010</v>
@@ -47504,7 +47501,7 @@
         <v>372</v>
       </c>
       <c r="C204" t="s" s="6">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D204" t="s" s="6">
         <v>1010</v>
@@ -47516,7 +47513,7 @@
         <v>373</v>
       </c>
       <c r="C205" t="s" s="6">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D205" t="s" s="6">
         <v>1010</v>
@@ -47528,10 +47525,10 @@
         <v>374</v>
       </c>
       <c r="C206" t="s" s="6">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D206" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="207" ht="31.35" customHeight="1">
@@ -47540,7 +47537,7 @@
         <v>375</v>
       </c>
       <c r="C207" t="s" s="6">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D207" t="s" s="6">
         <v>1010</v>
@@ -47552,10 +47549,10 @@
         <v>377</v>
       </c>
       <c r="C208" t="s" s="6">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D208" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="209" ht="13.35" customHeight="1">
@@ -47564,7 +47561,7 @@
         <v>378</v>
       </c>
       <c r="C209" t="s" s="6">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D209" t="s" s="6">
         <v>1010</v>
@@ -47576,10 +47573,10 @@
         <v>380</v>
       </c>
       <c r="C210" t="s" s="6">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D210" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="211" ht="31.35" customHeight="1">
@@ -47588,10 +47585,10 @@
         <v>381</v>
       </c>
       <c r="C211" t="s" s="6">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D211" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="212" ht="31.35" customHeight="1">
@@ -47600,7 +47597,7 @@
         <v>383</v>
       </c>
       <c r="C212" t="s" s="6">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D212" t="s" s="6">
         <v>1010</v>
@@ -47612,10 +47609,10 @@
         <v>384</v>
       </c>
       <c r="C213" t="s" s="6">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D213" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="214" ht="13.35" customHeight="1">
@@ -47624,10 +47621,10 @@
         <v>386</v>
       </c>
       <c r="C214" t="s" s="6">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D214" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="215" ht="13.35" customHeight="1">
@@ -47636,7 +47633,7 @@
         <v>388</v>
       </c>
       <c r="C215" t="s" s="6">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D215" t="s" s="6">
         <v>1010</v>
@@ -47648,10 +47645,10 @@
         <v>390</v>
       </c>
       <c r="C216" t="s" s="6">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D216" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="217" ht="13.35" customHeight="1">
@@ -47660,7 +47657,7 @@
         <v>391</v>
       </c>
       <c r="C217" t="s" s="6">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D217" t="s" s="6">
         <v>1010</v>
@@ -47672,10 +47669,10 @@
         <v>392</v>
       </c>
       <c r="C218" t="s" s="6">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D218" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="219" ht="31.35" customHeight="1">
@@ -47684,7 +47681,7 @@
         <v>394</v>
       </c>
       <c r="C219" t="s" s="6">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D219" t="s" s="6">
         <v>1010</v>
@@ -47696,10 +47693,10 @@
         <v>395</v>
       </c>
       <c r="C220" t="s" s="6">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D220" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="221" ht="31.35" customHeight="1">
@@ -47708,10 +47705,10 @@
         <v>396</v>
       </c>
       <c r="C221" t="s" s="6">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D221" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="222" ht="31.35" customHeight="1">
@@ -47720,7 +47717,7 @@
         <v>398</v>
       </c>
       <c r="C222" t="s" s="6">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D222" t="s" s="6">
         <v>1010</v>
@@ -47732,7 +47729,7 @@
         <v>400</v>
       </c>
       <c r="C223" t="s" s="6">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D223" t="s" s="6">
         <v>1010</v>
@@ -47744,10 +47741,10 @@
         <v>402</v>
       </c>
       <c r="C224" t="s" s="6">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D224" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="225" ht="31.35" customHeight="1">
@@ -47756,10 +47753,10 @@
         <v>403</v>
       </c>
       <c r="C225" t="s" s="6">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D225" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="226" ht="31.35" customHeight="1">
@@ -47768,10 +47765,10 @@
         <v>405</v>
       </c>
       <c r="C226" t="s" s="6">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D226" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="227" ht="31.35" customHeight="1">
@@ -47780,7 +47777,7 @@
         <v>407</v>
       </c>
       <c r="C227" t="s" s="6">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D227" t="s" s="6">
         <v>1010</v>
@@ -47792,10 +47789,10 @@
         <v>409</v>
       </c>
       <c r="C228" t="s" s="6">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D228" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="229" ht="13.35" customHeight="1">
@@ -47804,10 +47801,10 @@
         <v>410</v>
       </c>
       <c r="C229" t="s" s="6">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D229" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="230" ht="13.35" customHeight="1">
@@ -47816,7 +47813,7 @@
         <v>412</v>
       </c>
       <c r="C230" t="s" s="6">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D230" t="s" s="6">
         <v>1010</v>
@@ -47828,7 +47825,7 @@
         <v>414</v>
       </c>
       <c r="C231" t="s" s="6">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D231" t="s" s="6">
         <v>1010</v>
@@ -47840,10 +47837,10 @@
         <v>415</v>
       </c>
       <c r="C232" t="s" s="6">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D232" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="233" ht="31.35" customHeight="1">
@@ -47852,10 +47849,10 @@
         <v>416</v>
       </c>
       <c r="C233" t="s" s="6">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D233" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="234" ht="13.35" customHeight="1">
@@ -47864,7 +47861,7 @@
         <v>418</v>
       </c>
       <c r="C234" t="s" s="6">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D234" t="s" s="6">
         <v>1010</v>
@@ -47876,7 +47873,7 @@
         <v>419</v>
       </c>
       <c r="C235" t="s" s="6">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D235" t="s" s="6">
         <v>1010</v>
@@ -47888,7 +47885,7 @@
         <v>420</v>
       </c>
       <c r="C236" t="s" s="6">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D236" t="s" s="6">
         <v>1010</v>
@@ -47900,10 +47897,10 @@
         <v>421</v>
       </c>
       <c r="C237" t="s" s="6">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D237" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="238" ht="13.35" customHeight="1">
@@ -47912,7 +47909,7 @@
         <v>423</v>
       </c>
       <c r="C238" t="s" s="6">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D238" t="s" s="6">
         <v>1010</v>
@@ -47924,7 +47921,7 @@
         <v>425</v>
       </c>
       <c r="C239" t="s" s="6">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D239" t="s" s="6">
         <v>1010</v>
@@ -47936,10 +47933,10 @@
         <v>427</v>
       </c>
       <c r="C240" t="s" s="6">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D240" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="241" ht="31.35" customHeight="1">
@@ -47948,7 +47945,7 @@
         <v>429</v>
       </c>
       <c r="C241" t="s" s="6">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D241" t="s" s="6">
         <v>1010</v>
@@ -47960,7 +47957,7 @@
         <v>431</v>
       </c>
       <c r="C242" t="s" s="6">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D242" t="s" s="6">
         <v>1010</v>
@@ -47972,7 +47969,7 @@
         <v>432</v>
       </c>
       <c r="C243" t="s" s="6">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D243" t="s" s="6">
         <v>1010</v>
@@ -47984,10 +47981,10 @@
         <v>434</v>
       </c>
       <c r="C244" t="s" s="38">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D244" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" ht="13.35" customHeight="1">
@@ -47996,10 +47993,10 @@
         <v>436</v>
       </c>
       <c r="C245" t="s" s="6">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D245" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="246" ht="31.35" customHeight="1">
@@ -48008,7 +48005,7 @@
         <v>438</v>
       </c>
       <c r="C246" t="s" s="6">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D246" t="s" s="6">
         <v>1010</v>
@@ -48020,7 +48017,7 @@
         <v>439</v>
       </c>
       <c r="C247" t="s" s="6">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D247" t="s" s="6">
         <v>1010</v>
@@ -48032,10 +48029,10 @@
         <v>440</v>
       </c>
       <c r="C248" t="s" s="6">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D248" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="249" ht="13.35" customHeight="1">
@@ -48044,10 +48041,10 @@
         <v>442</v>
       </c>
       <c r="C249" t="s" s="6">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D249" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="250" ht="31.35" customHeight="1">
@@ -48056,7 +48053,7 @@
         <v>443</v>
       </c>
       <c r="C250" t="s" s="6">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D250" t="s" s="6">
         <v>1010</v>
@@ -48068,7 +48065,7 @@
         <v>444</v>
       </c>
       <c r="C251" t="s" s="6">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D251" t="s" s="6">
         <v>1010</v>
@@ -48080,7 +48077,7 @@
         <v>445</v>
       </c>
       <c r="C252" t="s" s="6">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D252" t="s" s="6">
         <v>1010</v>
@@ -48092,7 +48089,7 @@
         <v>446</v>
       </c>
       <c r="C253" t="s" s="6">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D253" t="s" s="6">
         <v>1010</v>
@@ -48104,10 +48101,10 @@
         <v>448</v>
       </c>
       <c r="C254" t="s" s="6">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D254" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="255" ht="13.35" customHeight="1">
@@ -48116,10 +48113,10 @@
         <v>450</v>
       </c>
       <c r="C255" t="s" s="6">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D255" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="256" ht="13.35" customHeight="1">
@@ -48128,10 +48125,10 @@
         <v>452</v>
       </c>
       <c r="C256" t="s" s="6">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D256" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="257" ht="13.35" customHeight="1">
@@ -48140,10 +48137,10 @@
         <v>453</v>
       </c>
       <c r="C257" t="s" s="6">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D257" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="258" ht="31.35" customHeight="1">
@@ -48152,7 +48149,7 @@
         <v>454</v>
       </c>
       <c r="C258" t="s" s="6">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D258" t="s" s="6">
         <v>1010</v>
@@ -48164,7 +48161,7 @@
         <v>234</v>
       </c>
       <c r="C259" t="s" s="16">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D259" t="s" s="16">
         <v>1010</v>
@@ -48176,10 +48173,10 @@
         <v>456</v>
       </c>
       <c r="C260" t="s" s="6">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D260" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="261" ht="31.35" customHeight="1">
@@ -48188,7 +48185,7 @@
         <v>425</v>
       </c>
       <c r="C261" t="s" s="16">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D261" t="s" s="16">
         <v>1010</v>
@@ -48200,7 +48197,7 @@
         <v>458</v>
       </c>
       <c r="C262" t="s" s="6">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D262" t="s" s="6">
         <v>1010</v>
@@ -48212,7 +48209,7 @@
         <v>459</v>
       </c>
       <c r="C263" t="s" s="6">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D263" t="s" s="6">
         <v>1010</v>
@@ -48224,7 +48221,7 @@
         <v>391</v>
       </c>
       <c r="C264" t="s" s="16">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D264" t="s" s="16">
         <v>1010</v>
@@ -48236,7 +48233,7 @@
         <v>461</v>
       </c>
       <c r="C265" t="s" s="6">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D265" t="s" s="6">
         <v>1010</v>
@@ -48248,10 +48245,10 @@
         <v>463</v>
       </c>
       <c r="C266" t="s" s="6">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D266" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="267" ht="13.35" customHeight="1">
@@ -48260,10 +48257,10 @@
         <v>465</v>
       </c>
       <c r="C267" t="s" s="6">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D267" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="268" ht="31.35" customHeight="1">
@@ -48272,10 +48269,10 @@
         <v>266</v>
       </c>
       <c r="C268" t="s" s="16">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D268" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="269" ht="31.35" customHeight="1">
@@ -48284,10 +48281,10 @@
         <v>270</v>
       </c>
       <c r="C269" t="s" s="16">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D269" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="270" ht="31.35" customHeight="1">
@@ -48296,7 +48293,7 @@
         <v>398</v>
       </c>
       <c r="C270" t="s" s="16">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D270" t="s" s="16">
         <v>1010</v>
@@ -48308,7 +48305,7 @@
         <v>469</v>
       </c>
       <c r="C271" t="s" s="6">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D271" t="s" s="6">
         <v>1010</v>
@@ -48320,7 +48317,7 @@
         <v>445</v>
       </c>
       <c r="C272" t="s" s="16">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D272" t="s" s="16">
         <v>1010</v>
@@ -48332,10 +48329,10 @@
         <v>471</v>
       </c>
       <c r="C273" t="s" s="6">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D273" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="274" ht="31.35" customHeight="1">
@@ -48344,7 +48341,7 @@
         <v>473</v>
       </c>
       <c r="C274" t="s" s="6">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D274" t="s" s="6">
         <v>1010</v>
@@ -48359,7 +48356,7 @@
         <v>1016</v>
       </c>
       <c r="D275" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="276" ht="13.35" customHeight="1">
@@ -48368,10 +48365,10 @@
         <v>364</v>
       </c>
       <c r="C276" t="s" s="16">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D276" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="277" ht="13.35" customHeight="1">
@@ -48380,10 +48377,10 @@
         <v>452</v>
       </c>
       <c r="C277" t="s" s="16">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D277" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="278" ht="31.35" customHeight="1">
@@ -48392,10 +48389,10 @@
         <v>392</v>
       </c>
       <c r="C278" t="s" s="16">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D278" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="279" ht="13.35" customHeight="1">
@@ -48404,10 +48401,10 @@
         <v>477</v>
       </c>
       <c r="C279" t="s" s="6">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D279" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="280" ht="31.35" customHeight="1">
@@ -48416,10 +48413,10 @@
         <v>478</v>
       </c>
       <c r="C280" t="s" s="6">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D280" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="281" ht="31.35" customHeight="1">
@@ -48428,10 +48425,10 @@
         <v>480</v>
       </c>
       <c r="C281" t="s" s="6">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D281" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="282" ht="31.35" customHeight="1">
@@ -48440,10 +48437,10 @@
         <v>482</v>
       </c>
       <c r="C282" t="s" s="6">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D282" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="283" ht="13.35" customHeight="1">
@@ -48452,7 +48449,7 @@
         <v>484</v>
       </c>
       <c r="C283" t="s" s="6">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D283" t="s" s="6">
         <v>1010</v>
@@ -48464,10 +48461,10 @@
         <v>485</v>
       </c>
       <c r="C284" t="s" s="6">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D284" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="285" ht="31.35" customHeight="1">
@@ -48476,7 +48473,7 @@
         <v>487</v>
       </c>
       <c r="C285" t="s" s="6">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D285" t="s" s="6">
         <v>1010</v>
@@ -48488,7 +48485,7 @@
         <v>488</v>
       </c>
       <c r="C286" t="s" s="38">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D286" t="s" s="6">
         <v>1010</v>
@@ -48500,7 +48497,7 @@
         <v>489</v>
       </c>
       <c r="C287" t="s" s="6">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D287" t="s" s="6">
         <v>1010</v>
@@ -48512,7 +48509,7 @@
         <v>490</v>
       </c>
       <c r="C288" t="s" s="6">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D288" t="s" s="6">
         <v>1010</v>
@@ -48524,7 +48521,7 @@
         <v>491</v>
       </c>
       <c r="C289" t="s" s="6">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D289" t="s" s="6">
         <v>1010</v>
@@ -48536,10 +48533,10 @@
         <v>493</v>
       </c>
       <c r="C290" t="s" s="6">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D290" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="291" ht="13.35" customHeight="1">
@@ -48548,10 +48545,10 @@
         <v>494</v>
       </c>
       <c r="C291" t="s" s="6">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D291" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="292" ht="31.35" customHeight="1">
@@ -48560,7 +48557,7 @@
         <v>495</v>
       </c>
       <c r="C292" t="s" s="6">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D292" t="s" s="6">
         <v>1010</v>
@@ -48572,7 +48569,7 @@
         <v>497</v>
       </c>
       <c r="C293" t="s" s="6">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D293" t="s" s="6">
         <v>1010</v>
@@ -48584,10 +48581,10 @@
         <v>499</v>
       </c>
       <c r="C294" t="s" s="6">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D294" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="295" ht="31.35" customHeight="1">
@@ -48596,10 +48593,10 @@
         <v>500</v>
       </c>
       <c r="C295" t="s" s="6">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D295" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="296" ht="31.35" customHeight="1">
@@ -48608,7 +48605,7 @@
         <v>502</v>
       </c>
       <c r="C296" t="s" s="6">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D296" t="s" s="6">
         <v>1010</v>
@@ -48620,10 +48617,10 @@
         <v>504</v>
       </c>
       <c r="C297" t="s" s="6">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D297" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="298" ht="31.35" customHeight="1">
@@ -48632,10 +48629,10 @@
         <v>505</v>
       </c>
       <c r="C298" t="s" s="6">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D298" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="299" ht="13.35" customHeight="1">
@@ -48644,7 +48641,7 @@
         <v>506</v>
       </c>
       <c r="C299" t="s" s="6">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D299" t="s" s="6">
         <v>1010</v>
@@ -48656,10 +48653,10 @@
         <v>508</v>
       </c>
       <c r="C300" t="s" s="6">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D300" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="301" ht="31.35" customHeight="1">
@@ -48668,7 +48665,7 @@
         <v>510</v>
       </c>
       <c r="C301" t="s" s="6">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D301" t="s" s="6">
         <v>1010</v>
@@ -48680,10 +48677,10 @@
         <v>511</v>
       </c>
       <c r="C302" t="s" s="6">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D302" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="303" ht="13.35" customHeight="1">
@@ -48692,7 +48689,7 @@
         <v>512</v>
       </c>
       <c r="C303" t="s" s="6">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D303" t="s" s="6">
         <v>1010</v>
@@ -48704,7 +48701,7 @@
         <v>513</v>
       </c>
       <c r="C304" t="s" s="6">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D304" t="s" s="6">
         <v>1010</v>
@@ -48716,7 +48713,7 @@
         <v>515</v>
       </c>
       <c r="C305" t="s" s="6">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D305" t="s" s="6">
         <v>1010</v>
@@ -48728,10 +48725,10 @@
         <v>517</v>
       </c>
       <c r="C306" t="s" s="6">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D306" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="307" ht="31.35" customHeight="1">
@@ -48740,10 +48737,10 @@
         <v>518</v>
       </c>
       <c r="C307" t="s" s="6">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D307" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="308" ht="31.35" customHeight="1">
@@ -48752,7 +48749,7 @@
         <v>520</v>
       </c>
       <c r="C308" t="s" s="6">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D308" t="s" s="6">
         <v>1010</v>
@@ -48764,10 +48761,10 @@
         <v>522</v>
       </c>
       <c r="C309" t="s" s="6">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D309" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="310" ht="31.35" customHeight="1">
@@ -48776,10 +48773,10 @@
         <v>523</v>
       </c>
       <c r="C310" t="s" s="6">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D310" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="311" ht="31.35" customHeight="1">
@@ -48788,7 +48785,7 @@
         <v>525</v>
       </c>
       <c r="C311" t="s" s="6">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D311" t="s" s="6">
         <v>1010</v>
@@ -48800,7 +48797,7 @@
         <v>526</v>
       </c>
       <c r="C312" t="s" s="6">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D312" t="s" s="6">
         <v>1010</v>
@@ -48812,10 +48809,10 @@
         <v>527</v>
       </c>
       <c r="C313" t="s" s="6">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D313" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="314" ht="13.35" customHeight="1">
@@ -48824,7 +48821,7 @@
         <v>528</v>
       </c>
       <c r="C314" t="s" s="6">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D314" t="s" s="6">
         <v>1010</v>
@@ -48836,10 +48833,10 @@
         <v>529</v>
       </c>
       <c r="C315" t="s" s="6">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D315" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="316" ht="31.35" customHeight="1">
@@ -48848,7 +48845,7 @@
         <v>531</v>
       </c>
       <c r="C316" t="s" s="6">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D316" t="s" s="6">
         <v>1010</v>
@@ -48860,10 +48857,10 @@
         <v>532</v>
       </c>
       <c r="C317" t="s" s="6">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D317" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="318" ht="31.35" customHeight="1">
@@ -48872,10 +48869,10 @@
         <v>533</v>
       </c>
       <c r="C318" t="s" s="6">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D318" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="319" ht="31.35" customHeight="1">
@@ -48884,7 +48881,7 @@
         <v>535</v>
       </c>
       <c r="C319" t="s" s="6">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D319" t="s" s="6">
         <v>1010</v>
@@ -48896,10 +48893,10 @@
         <v>537</v>
       </c>
       <c r="C320" t="s" s="6">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D320" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="321" ht="13.35" customHeight="1">
@@ -48908,7 +48905,7 @@
         <v>538</v>
       </c>
       <c r="C321" t="s" s="6">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D321" t="s" s="6">
         <v>1010</v>
@@ -48920,10 +48917,10 @@
         <v>539</v>
       </c>
       <c r="C322" t="s" s="6">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D322" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="323" ht="13.35" customHeight="1">
@@ -48932,10 +48929,10 @@
         <v>540</v>
       </c>
       <c r="C323" t="s" s="6">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D323" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="324" ht="31.35" customHeight="1">
@@ -48944,7 +48941,7 @@
         <v>542</v>
       </c>
       <c r="C324" t="s" s="6">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D324" t="s" s="6">
         <v>1010</v>
@@ -48956,7 +48953,7 @@
         <v>543</v>
       </c>
       <c r="C325" t="s" s="6">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D325" t="s" s="6">
         <v>1010</v>
@@ -48968,10 +48965,10 @@
         <v>544</v>
       </c>
       <c r="C326" t="s" s="6">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D326" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="327" ht="13.35" customHeight="1">
@@ -48980,10 +48977,10 @@
         <v>545</v>
       </c>
       <c r="C327" t="s" s="6">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D327" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="328" ht="31.35" customHeight="1">
@@ -48992,7 +48989,7 @@
         <v>547</v>
       </c>
       <c r="C328" t="s" s="6">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D328" t="s" s="6">
         <v>1010</v>
@@ -49004,7 +49001,7 @@
         <v>548</v>
       </c>
       <c r="C329" t="s" s="6">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D329" t="s" s="6">
         <v>1010</v>
@@ -49016,7 +49013,7 @@
         <v>549</v>
       </c>
       <c r="C330" t="s" s="6">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D330" t="s" s="6">
         <v>1010</v>
@@ -49028,7 +49025,7 @@
         <v>550</v>
       </c>
       <c r="C331" t="s" s="6">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D331" t="s" s="6">
         <v>1010</v>
@@ -49040,10 +49037,10 @@
         <v>552</v>
       </c>
       <c r="C332" t="s" s="6">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D332" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="333" ht="31.35" customHeight="1">
@@ -49052,10 +49049,10 @@
         <v>499</v>
       </c>
       <c r="C333" t="s" s="16">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D333" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="334" ht="31.35" customHeight="1">
@@ -49064,10 +49061,10 @@
         <v>302</v>
       </c>
       <c r="C334" t="s" s="21">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D334" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="335" ht="13.35" customHeight="1">
@@ -49076,7 +49073,7 @@
         <v>491</v>
       </c>
       <c r="C335" t="s" s="16">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D335" t="s" s="16">
         <v>1010</v>
@@ -49088,10 +49085,10 @@
         <v>364</v>
       </c>
       <c r="C336" t="s" s="21">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D336" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="337" ht="13.35" customHeight="1">
@@ -49100,7 +49097,7 @@
         <v>313</v>
       </c>
       <c r="C337" t="s" s="16">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D337" t="s" s="16">
         <v>1010</v>
@@ -49112,7 +49109,7 @@
         <v>515</v>
       </c>
       <c r="C338" t="s" s="16">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D338" t="s" s="16">
         <v>1010</v>
@@ -49124,7 +49121,7 @@
         <v>445</v>
       </c>
       <c r="C339" t="s" s="21">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D339" t="s" s="21">
         <v>1010</v>
@@ -49136,7 +49133,7 @@
         <v>135</v>
       </c>
       <c r="C340" t="s" s="21">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D340" t="s" s="21">
         <v>1010</v>
@@ -49148,7 +49145,7 @@
         <v>520</v>
       </c>
       <c r="C341" t="s" s="16">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D341" t="s" s="16">
         <v>1010</v>
@@ -49160,10 +49157,10 @@
         <v>453</v>
       </c>
       <c r="C342" t="s" s="16">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D342" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="343" ht="13.35" customHeight="1">
@@ -49172,7 +49169,7 @@
         <v>526</v>
       </c>
       <c r="C343" t="s" s="16">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D343" t="s" s="16">
         <v>1010</v>
@@ -49184,10 +49181,10 @@
         <v>452</v>
       </c>
       <c r="C344" t="s" s="21">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D344" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="345" ht="31.35" customHeight="1">
@@ -49196,10 +49193,10 @@
         <v>390</v>
       </c>
       <c r="C345" t="s" s="16">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D345" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="346" ht="13.35" customHeight="1">
@@ -49208,10 +49205,10 @@
         <v>368</v>
       </c>
       <c r="C346" t="s" s="16">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D346" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="347" ht="31.35" customHeight="1">
@@ -49220,7 +49217,7 @@
         <v>226</v>
       </c>
       <c r="C347" t="s" s="21">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D347" t="s" s="21">
         <v>1010</v>
@@ -49232,7 +49229,7 @@
         <v>91</v>
       </c>
       <c r="C348" t="s" s="21">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D348" t="s" s="21">
         <v>1010</v>
@@ -49244,10 +49241,10 @@
         <v>79</v>
       </c>
       <c r="C349" t="s" s="21">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D349" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="350" ht="31.35" customHeight="1">
@@ -49256,7 +49253,7 @@
         <v>550</v>
       </c>
       <c r="C350" t="s" s="16">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D350" t="s" s="16">
         <v>1010</v>
@@ -49268,10 +49265,10 @@
         <v>392</v>
       </c>
       <c r="C351" t="s" s="21">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D351" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="352" ht="13.35" customHeight="1">
@@ -49280,10 +49277,10 @@
         <v>237</v>
       </c>
       <c r="C352" t="s" s="16">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D352" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="353" ht="31.35" customHeight="1">
@@ -49292,10 +49289,10 @@
         <v>559</v>
       </c>
       <c r="C353" t="s" s="6">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D353" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="354" ht="31.35" customHeight="1">
@@ -49304,10 +49301,10 @@
         <v>561</v>
       </c>
       <c r="C354" t="s" s="6">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D354" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="355" ht="13.35" customHeight="1">
@@ -49316,7 +49313,7 @@
         <v>562</v>
       </c>
       <c r="C355" t="s" s="6">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D355" t="s" s="6">
         <v>1010</v>
@@ -49328,7 +49325,7 @@
         <v>564</v>
       </c>
       <c r="C356" t="s" s="6">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D356" t="s" s="6">
         <v>1010</v>
@@ -49340,7 +49337,7 @@
         <v>566</v>
       </c>
       <c r="C357" t="s" s="6">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D357" t="s" s="6">
         <v>1010</v>
@@ -49352,10 +49349,10 @@
         <v>568</v>
       </c>
       <c r="C358" t="s" s="6">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D358" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="359" ht="13.35" customHeight="1">
@@ -49364,10 +49361,10 @@
         <v>569</v>
       </c>
       <c r="C359" t="s" s="6">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D359" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="360" ht="31.35" customHeight="1">
@@ -49376,10 +49373,10 @@
         <v>571</v>
       </c>
       <c r="C360" t="s" s="6">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D360" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="361" ht="31.35" customHeight="1">
@@ -49388,10 +49385,10 @@
         <v>573</v>
       </c>
       <c r="C361" t="s" s="6">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D361" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="362" ht="31.35" customHeight="1">
@@ -49400,7 +49397,7 @@
         <v>574</v>
       </c>
       <c r="C362" t="s" s="6">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D362" t="s" s="6">
         <v>1010</v>
@@ -49412,10 +49409,10 @@
         <v>576</v>
       </c>
       <c r="C363" t="s" s="6">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D363" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="364" ht="31.35" customHeight="1">
@@ -49424,10 +49421,10 @@
         <v>578</v>
       </c>
       <c r="C364" t="s" s="6">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D364" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="365" ht="13.35" customHeight="1">
@@ -49436,10 +49433,10 @@
         <v>579</v>
       </c>
       <c r="C365" t="s" s="6">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D365" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="366" ht="13.35" customHeight="1">
@@ -49448,7 +49445,7 @@
         <v>580</v>
       </c>
       <c r="C366" t="s" s="6">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D366" t="s" s="6">
         <v>1010</v>
@@ -49460,10 +49457,10 @@
         <v>581</v>
       </c>
       <c r="C367" t="s" s="6">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D367" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="368" ht="31.35" customHeight="1">
@@ -49472,7 +49469,7 @@
         <v>583</v>
       </c>
       <c r="C368" t="s" s="6">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D368" t="s" s="6">
         <v>1010</v>
@@ -49484,10 +49481,10 @@
         <v>585</v>
       </c>
       <c r="C369" t="s" s="6">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D369" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="370" ht="31.35" customHeight="1">
@@ -49496,7 +49493,7 @@
         <v>587</v>
       </c>
       <c r="C370" t="s" s="6">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D370" t="s" s="6">
         <v>1010</v>
@@ -49508,7 +49505,7 @@
         <v>588</v>
       </c>
       <c r="C371" t="s" s="6">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D371" t="s" s="6">
         <v>1010</v>
@@ -49520,7 +49517,7 @@
         <v>590</v>
       </c>
       <c r="C372" t="s" s="6">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D372" t="s" s="6">
         <v>1010</v>
@@ -49532,10 +49529,10 @@
         <v>591</v>
       </c>
       <c r="C373" t="s" s="6">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D373" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="374" ht="31.35" customHeight="1">
@@ -49544,7 +49541,7 @@
         <v>550</v>
       </c>
       <c r="C374" t="s" s="21">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D374" t="s" s="21">
         <v>1010</v>
@@ -49556,10 +49553,10 @@
         <v>592</v>
       </c>
       <c r="C375" t="s" s="6">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D375" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="376" ht="13.35" customHeight="1">
@@ -49568,10 +49565,10 @@
         <v>594</v>
       </c>
       <c r="C376" t="s" s="6">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D376" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="377" ht="31.35" customHeight="1">
@@ -49580,10 +49577,10 @@
         <v>595</v>
       </c>
       <c r="C377" t="s" s="6">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D377" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="378" ht="13.35" customHeight="1">
@@ -49592,10 +49589,10 @@
         <v>596</v>
       </c>
       <c r="C378" t="s" s="6">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D378" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="379" ht="13.35" customHeight="1">
@@ -49604,7 +49601,7 @@
         <v>597</v>
       </c>
       <c r="C379" t="s" s="6">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D379" t="s" s="6">
         <v>1010</v>
@@ -49616,10 +49613,10 @@
         <v>598</v>
       </c>
       <c r="C380" t="s" s="6">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D380" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="381" ht="13.35" customHeight="1">
@@ -49628,7 +49625,7 @@
         <v>600</v>
       </c>
       <c r="C381" t="s" s="6">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D381" t="s" s="6">
         <v>1010</v>
@@ -49640,7 +49637,7 @@
         <v>601</v>
       </c>
       <c r="C382" t="s" s="6">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D382" t="s" s="6">
         <v>1010</v>
@@ -49652,7 +49649,7 @@
         <v>603</v>
       </c>
       <c r="C383" t="s" s="6">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D383" t="s" s="6">
         <v>1010</v>
@@ -49664,7 +49661,7 @@
         <v>604</v>
       </c>
       <c r="C384" t="s" s="6">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D384" t="s" s="6">
         <v>1010</v>
@@ -49676,7 +49673,7 @@
         <v>605</v>
       </c>
       <c r="C385" t="s" s="6">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D385" t="s" s="6">
         <v>1010</v>
@@ -49688,10 +49685,10 @@
         <v>607</v>
       </c>
       <c r="C386" t="s" s="6">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D386" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="387" ht="31.35" customHeight="1">
@@ -49700,10 +49697,10 @@
         <v>609</v>
       </c>
       <c r="C387" t="s" s="6">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D387" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="388" ht="13.35" customHeight="1">
@@ -49712,10 +49709,10 @@
         <v>611</v>
       </c>
       <c r="C388" t="s" s="6">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D388" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="389" ht="13.35" customHeight="1">
@@ -49724,7 +49721,7 @@
         <v>613</v>
       </c>
       <c r="C389" t="s" s="6">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D389" t="s" s="6">
         <v>1010</v>
@@ -49736,7 +49733,7 @@
         <v>135</v>
       </c>
       <c r="C390" t="s" s="25">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D390" t="s" s="25">
         <v>1010</v>
@@ -49748,10 +49745,10 @@
         <v>614</v>
       </c>
       <c r="C391" t="s" s="6">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D391" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="392" ht="13.35" customHeight="1">
@@ -49760,7 +49757,7 @@
         <v>615</v>
       </c>
       <c r="C392" t="s" s="6">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D392" t="s" s="6">
         <v>1010</v>
@@ -49772,10 +49769,10 @@
         <v>617</v>
       </c>
       <c r="C393" t="s" s="6">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D393" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="394" ht="13.35" customHeight="1">
@@ -49784,10 +49781,10 @@
         <v>619</v>
       </c>
       <c r="C394" t="s" s="6">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D394" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="395" ht="13.35" customHeight="1">
@@ -49796,10 +49793,10 @@
         <v>620</v>
       </c>
       <c r="C395" t="s" s="6">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D395" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="396" ht="31.35" customHeight="1">
@@ -49808,10 +49805,10 @@
         <v>621</v>
       </c>
       <c r="C396" t="s" s="6">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D396" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="397" ht="31.35" customHeight="1">
@@ -49820,7 +49817,7 @@
         <v>623</v>
       </c>
       <c r="C397" t="s" s="6">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D397" t="s" s="6">
         <v>1010</v>
@@ -49832,7 +49829,7 @@
         <v>624</v>
       </c>
       <c r="C398" t="s" s="6">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D398" t="s" s="6">
         <v>1010</v>
@@ -49844,10 +49841,10 @@
         <v>626</v>
       </c>
       <c r="C399" t="s" s="6">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D399" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="400" ht="13.35" customHeight="1">
@@ -49856,10 +49853,10 @@
         <v>628</v>
       </c>
       <c r="C400" t="s" s="6">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D400" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="401" ht="31.35" customHeight="1">
@@ -49868,7 +49865,7 @@
         <v>629</v>
       </c>
       <c r="C401" t="s" s="6">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D401" t="s" s="6">
         <v>1010</v>
@@ -49880,10 +49877,10 @@
         <v>630</v>
       </c>
       <c r="C402" t="s" s="6">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D402" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="403" ht="31.35" customHeight="1">
@@ -49892,7 +49889,7 @@
         <v>631</v>
       </c>
       <c r="C403" t="s" s="6">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D403" t="s" s="6">
         <v>1010</v>
@@ -49904,7 +49901,7 @@
         <v>633</v>
       </c>
       <c r="C404" t="s" s="6">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D404" t="s" s="6">
         <v>1010</v>
@@ -49916,7 +49913,7 @@
         <v>398</v>
       </c>
       <c r="C405" t="s" s="21">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D405" t="s" s="21">
         <v>1010</v>
@@ -49928,7 +49925,7 @@
         <v>635</v>
       </c>
       <c r="C406" t="s" s="6">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D406" t="s" s="6">
         <v>1010</v>
@@ -49940,7 +49937,7 @@
         <v>520</v>
       </c>
       <c r="C407" t="s" s="21">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D407" t="s" s="21">
         <v>1010</v>
@@ -49952,10 +49949,10 @@
         <v>637</v>
       </c>
       <c r="C408" t="s" s="6">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D408" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="409" ht="31.35" customHeight="1">
@@ -49964,10 +49961,10 @@
         <v>639</v>
       </c>
       <c r="C409" t="s" s="6">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D409" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="410" ht="13.35" customHeight="1">
@@ -49976,10 +49973,10 @@
         <v>640</v>
       </c>
       <c r="C410" t="s" s="6">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D410" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="411" ht="13.35" customHeight="1">
@@ -49988,7 +49985,7 @@
         <v>642</v>
       </c>
       <c r="C411" t="s" s="6">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D411" t="s" s="6">
         <v>1010</v>
@@ -50000,7 +49997,7 @@
         <v>643</v>
       </c>
       <c r="C412" t="s" s="6">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D412" t="s" s="6">
         <v>1010</v>
@@ -50012,10 +50009,10 @@
         <v>644</v>
       </c>
       <c r="C413" t="s" s="6">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D413" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="414" ht="31.35" customHeight="1">
@@ -50024,7 +50021,7 @@
         <v>645</v>
       </c>
       <c r="C414" t="s" s="6">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D414" t="s" s="6">
         <v>1010</v>
@@ -50036,7 +50033,7 @@
         <v>647</v>
       </c>
       <c r="C415" t="s" s="6">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D415" t="s" s="6">
         <v>1010</v>
@@ -50048,7 +50045,7 @@
         <v>649</v>
       </c>
       <c r="C416" t="s" s="6">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D416" t="s" s="6">
         <v>1010</v>
@@ -50060,7 +50057,7 @@
         <v>651</v>
       </c>
       <c r="C417" t="s" s="6">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D417" t="s" s="6">
         <v>1010</v>
@@ -50072,7 +50069,7 @@
         <v>653</v>
       </c>
       <c r="C418" t="s" s="6">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D418" t="s" s="6">
         <v>1010</v>
@@ -50084,7 +50081,7 @@
         <v>654</v>
       </c>
       <c r="C419" t="s" s="6">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D419" t="s" s="6">
         <v>1010</v>
@@ -50096,10 +50093,10 @@
         <v>655</v>
       </c>
       <c r="C420" t="s" s="6">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D420" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="421" ht="31.35" customHeight="1">
@@ -50108,7 +50105,7 @@
         <v>656</v>
       </c>
       <c r="C421" t="s" s="6">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D421" t="s" s="6">
         <v>1010</v>
@@ -50120,10 +50117,10 @@
         <v>657</v>
       </c>
       <c r="C422" t="s" s="6">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D422" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="423" ht="31.35" customHeight="1">
@@ -50132,10 +50129,10 @@
         <v>658</v>
       </c>
       <c r="C423" t="s" s="6">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D423" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="424" ht="13.35" customHeight="1">
@@ -50144,10 +50141,10 @@
         <v>659</v>
       </c>
       <c r="C424" t="s" s="6">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D424" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="425" ht="13.35" customHeight="1">
@@ -50156,10 +50153,10 @@
         <v>661</v>
       </c>
       <c r="C425" t="s" s="6">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D425" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="426" ht="31.35" customHeight="1">
@@ -50168,10 +50165,10 @@
         <v>662</v>
       </c>
       <c r="C426" t="s" s="6">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D426" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="427" ht="31.35" customHeight="1">
@@ -50180,7 +50177,7 @@
         <v>663</v>
       </c>
       <c r="C427" t="s" s="6">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D427" t="s" s="6">
         <v>1010</v>
@@ -50192,10 +50189,10 @@
         <v>665</v>
       </c>
       <c r="C428" t="s" s="6">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D428" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="429" ht="13.35" customHeight="1">
@@ -50204,10 +50201,10 @@
         <v>666</v>
       </c>
       <c r="C429" t="s" s="6">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D429" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="430" ht="31.35" customHeight="1">
@@ -50216,7 +50213,7 @@
         <v>535</v>
       </c>
       <c r="C430" t="s" s="16">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D430" t="s" s="16">
         <v>1010</v>
@@ -50228,10 +50225,10 @@
         <v>668</v>
       </c>
       <c r="C431" t="s" s="6">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D431" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="432" ht="31.35" customHeight="1">
@@ -50240,10 +50237,10 @@
         <v>670</v>
       </c>
       <c r="C432" t="s" s="6">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D432" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="433" ht="31.35" customHeight="1">
@@ -50252,10 +50249,10 @@
         <v>672</v>
       </c>
       <c r="C433" t="s" s="6">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D433" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="434" ht="13.35" customHeight="1">
@@ -50264,10 +50261,10 @@
         <v>674</v>
       </c>
       <c r="C434" t="s" s="6">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D434" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="435" ht="13.35" customHeight="1">
@@ -50276,7 +50273,7 @@
         <v>675</v>
       </c>
       <c r="C435" t="s" s="6">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D435" t="s" s="6">
         <v>1010</v>
@@ -50288,7 +50285,7 @@
         <v>676</v>
       </c>
       <c r="C436" t="s" s="6">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D436" t="s" s="6">
         <v>1010</v>
@@ -50300,7 +50297,7 @@
         <v>678</v>
       </c>
       <c r="C437" t="s" s="6">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D437" t="s" s="6">
         <v>1010</v>
@@ -50312,7 +50309,7 @@
         <v>391</v>
       </c>
       <c r="C438" t="s" s="21">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D438" t="s" s="21">
         <v>1010</v>
@@ -50324,7 +50321,7 @@
         <v>680</v>
       </c>
       <c r="C439" t="s" s="6">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D439" t="s" s="6">
         <v>1010</v>
@@ -50336,10 +50333,10 @@
         <v>682</v>
       </c>
       <c r="C440" t="s" s="6">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D440" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="441" ht="13.35" customHeight="1">
@@ -50348,7 +50345,7 @@
         <v>683</v>
       </c>
       <c r="C441" t="s" s="6">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D441" t="s" s="6">
         <v>1010</v>
@@ -50360,10 +50357,10 @@
         <v>684</v>
       </c>
       <c r="C442" t="s" s="6">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D442" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="443" ht="31.35" customHeight="1">
@@ -50372,7 +50369,7 @@
         <v>74</v>
       </c>
       <c r="C443" t="s" s="16">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D443" t="s" s="16">
         <v>1010</v>
@@ -50384,10 +50381,10 @@
         <v>685</v>
       </c>
       <c r="C444" t="s" s="6">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D444" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="445" ht="31.35" customHeight="1">
@@ -50396,10 +50393,10 @@
         <v>591</v>
       </c>
       <c r="C445" t="s" s="16">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D445" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="446" ht="31.35" customHeight="1">
@@ -50408,10 +50405,10 @@
         <v>687</v>
       </c>
       <c r="C446" t="s" s="6">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D446" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="447" ht="13.35" customHeight="1">
@@ -50420,10 +50417,10 @@
         <v>689</v>
       </c>
       <c r="C447" t="s" s="6">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D447" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="448" ht="31.35" customHeight="1">
@@ -50432,7 +50429,7 @@
         <v>690</v>
       </c>
       <c r="C448" t="s" s="6">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D448" t="s" s="6">
         <v>1010</v>
@@ -50444,10 +50441,10 @@
         <v>691</v>
       </c>
       <c r="C449" t="s" s="6">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D449" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="450" ht="31.35" customHeight="1">
@@ -50456,7 +50453,7 @@
         <v>631</v>
       </c>
       <c r="C450" t="s" s="16">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D450" t="s" s="16">
         <v>1010</v>
@@ -50468,7 +50465,7 @@
         <v>692</v>
       </c>
       <c r="C451" t="s" s="6">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D451" t="s" s="6">
         <v>1010</v>
@@ -50480,10 +50477,10 @@
         <v>693</v>
       </c>
       <c r="C452" t="s" s="6">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D452" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="453" ht="31.35" customHeight="1">
@@ -50492,10 +50489,10 @@
         <v>493</v>
       </c>
       <c r="C453" t="s" s="16">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D453" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="454" ht="31.35" customHeight="1">
@@ -50504,7 +50501,7 @@
         <v>695</v>
       </c>
       <c r="C454" t="s" s="6">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D454" t="s" s="6">
         <v>1010</v>
@@ -50516,7 +50513,7 @@
         <v>613</v>
       </c>
       <c r="C455" t="s" s="16">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D455" t="s" s="16">
         <v>1010</v>
@@ -50528,7 +50525,7 @@
         <v>683</v>
       </c>
       <c r="C456" t="s" s="16">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D456" t="s" s="16">
         <v>1010</v>
@@ -50540,7 +50537,7 @@
         <v>696</v>
       </c>
       <c r="C457" t="s" s="6">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D457" t="s" s="6">
         <v>1010</v>
@@ -50552,10 +50549,10 @@
         <v>607</v>
       </c>
       <c r="C458" t="s" s="16">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D458" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="459" ht="31.35" customHeight="1">
@@ -50564,10 +50561,10 @@
         <v>576</v>
       </c>
       <c r="C459" t="s" s="16">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D459" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="460" ht="31.35" customHeight="1">
@@ -50576,7 +50573,7 @@
         <v>473</v>
       </c>
       <c r="C460" t="s" s="16">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D460" t="s" s="16">
         <v>1010</v>
@@ -50588,7 +50585,7 @@
         <v>698</v>
       </c>
       <c r="C461" t="s" s="6">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D461" t="s" s="6">
         <v>1010</v>
@@ -50600,10 +50597,10 @@
         <v>626</v>
       </c>
       <c r="C462" t="s" s="16">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D462" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="463" ht="31.35" customHeight="1">
@@ -50612,10 +50609,10 @@
         <v>700</v>
       </c>
       <c r="C463" t="s" s="6">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D463" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="464" ht="31.35" customHeight="1">
@@ -50624,7 +50621,7 @@
         <v>629</v>
       </c>
       <c r="C464" t="s" s="16">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D464" t="s" s="16">
         <v>1010</v>
@@ -50636,7 +50633,7 @@
         <v>226</v>
       </c>
       <c r="C465" t="s" s="25">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D465" t="s" s="25">
         <v>1010</v>
@@ -50648,7 +50645,7 @@
         <v>645</v>
       </c>
       <c r="C466" t="s" s="16">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D466" t="s" s="16">
         <v>1010</v>
@@ -50660,10 +50657,10 @@
         <v>703</v>
       </c>
       <c r="C467" t="s" s="6">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D467" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="468" ht="31.35" customHeight="1">
@@ -50672,10 +50669,10 @@
         <v>704</v>
       </c>
       <c r="C468" t="s" s="6">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D468" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="469" ht="31.35" customHeight="1">
@@ -50684,10 +50681,10 @@
         <v>706</v>
       </c>
       <c r="C469" t="s" s="21">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D469" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="470" ht="13.35" customHeight="1">
@@ -50696,7 +50693,7 @@
         <v>707</v>
       </c>
       <c r="C470" t="s" s="6">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D470" t="s" s="6">
         <v>1010</v>
@@ -50708,10 +50705,10 @@
         <v>655</v>
       </c>
       <c r="C471" t="s" s="16">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D471" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="472" ht="13.35" customHeight="1">
@@ -50720,7 +50717,7 @@
         <v>708</v>
       </c>
       <c r="C472" t="s" s="6">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D472" t="s" s="6">
         <v>1010</v>
@@ -50732,10 +50729,10 @@
         <v>709</v>
       </c>
       <c r="C473" t="s" s="6">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D473" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="474" ht="31.35" customHeight="1">
@@ -50744,7 +50741,7 @@
         <v>370</v>
       </c>
       <c r="C474" t="s" s="16">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D474" t="s" s="16">
         <v>1010</v>
@@ -50756,7 +50753,7 @@
         <v>710</v>
       </c>
       <c r="C475" t="s" s="6">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D475" t="s" s="6">
         <v>1010</v>
@@ -50768,7 +50765,7 @@
         <v>711</v>
       </c>
       <c r="C476" t="s" s="38">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D476" t="s" s="6">
         <v>1010</v>
@@ -50780,10 +50777,10 @@
         <v>712</v>
       </c>
       <c r="C477" t="s" s="6">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D477" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="478" ht="13.35" customHeight="1">
@@ -50792,7 +50789,7 @@
         <v>713</v>
       </c>
       <c r="C478" t="s" s="6">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D478" t="s" s="6">
         <v>1010</v>
@@ -50804,10 +50801,10 @@
         <v>540</v>
       </c>
       <c r="C479" t="s" s="16">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D479" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="480" ht="13.35" customHeight="1">
@@ -50816,10 +50813,10 @@
         <v>715</v>
       </c>
       <c r="C480" t="s" s="6">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D480" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="481" ht="31.35" customHeight="1">
@@ -50828,10 +50825,10 @@
         <v>93</v>
       </c>
       <c r="C481" t="s" s="21">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D481" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="482" ht="31.35" customHeight="1">
@@ -50852,10 +50849,10 @@
         <v>644</v>
       </c>
       <c r="C483" t="s" s="16">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D483" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="484" ht="13.35" customHeight="1">
@@ -50864,7 +50861,7 @@
         <v>515</v>
       </c>
       <c r="C484" t="s" s="21">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D484" t="s" s="21">
         <v>1010</v>
@@ -50876,7 +50873,7 @@
         <v>717</v>
       </c>
       <c r="C485" t="s" s="6">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D485" t="s" s="6">
         <v>1010</v>
@@ -50888,7 +50885,7 @@
         <v>718</v>
       </c>
       <c r="C486" t="s" s="6">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D486" t="s" s="6">
         <v>1010</v>
@@ -50900,7 +50897,7 @@
         <v>719</v>
       </c>
       <c r="C487" t="s" s="6">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D487" t="s" s="6">
         <v>1010</v>
@@ -50912,10 +50909,10 @@
         <v>720</v>
       </c>
       <c r="C488" t="s" s="6">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D488" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="489" ht="31.35" customHeight="1">
@@ -50924,7 +50921,7 @@
         <v>721</v>
       </c>
       <c r="C489" t="s" s="38">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D489" t="s" s="6">
         <v>1010</v>
@@ -50936,10 +50933,10 @@
         <v>723</v>
       </c>
       <c r="C490" t="s" s="6">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D490" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="491" ht="13.35" customHeight="1">
@@ -50948,10 +50945,10 @@
         <v>725</v>
       </c>
       <c r="C491" t="s" s="6">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D491" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="492" ht="13.35" customHeight="1">
@@ -50960,10 +50957,10 @@
         <v>727</v>
       </c>
       <c r="C492" t="s" s="6">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D492" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="493" ht="13.35" customHeight="1">
@@ -50972,10 +50969,10 @@
         <v>728</v>
       </c>
       <c r="C493" t="s" s="6">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D493" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="494" ht="13.35" customHeight="1">
@@ -50984,7 +50981,7 @@
         <v>730</v>
       </c>
       <c r="C494" t="s" s="6">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D494" t="s" s="6">
         <v>1010</v>
@@ -50996,7 +50993,7 @@
         <v>731</v>
       </c>
       <c r="C495" t="s" s="6">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D495" t="s" s="6">
         <v>1010</v>
@@ -51008,10 +51005,10 @@
         <v>733</v>
       </c>
       <c r="C496" t="s" s="6">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D496" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="497" ht="13.35" customHeight="1">
@@ -51020,10 +51017,10 @@
         <v>735</v>
       </c>
       <c r="C497" t="s" s="6">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D497" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="498" ht="13.35" customHeight="1">
@@ -51032,10 +51029,10 @@
         <v>736</v>
       </c>
       <c r="C498" t="s" s="6">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D498" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="499" ht="13.35" customHeight="1">
@@ -51044,7 +51041,7 @@
         <v>738</v>
       </c>
       <c r="C499" t="s" s="6">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D499" t="s" s="6">
         <v>1010</v>
@@ -51056,10 +51053,10 @@
         <v>739</v>
       </c>
       <c r="C500" t="s" s="6">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D500" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="501" ht="13.35" customHeight="1">
@@ -51068,7 +51065,7 @@
         <v>741</v>
       </c>
       <c r="C501" t="s" s="6">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D501" t="s" s="6">
         <v>1010</v>
@@ -51080,7 +51077,7 @@
         <v>742</v>
       </c>
       <c r="C502" t="s" s="6">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D502" t="s" s="6">
         <v>1010</v>
@@ -51092,10 +51089,10 @@
         <v>744</v>
       </c>
       <c r="C503" t="s" s="6">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D503" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="504" ht="31.35" customHeight="1">
@@ -51104,10 +51101,10 @@
         <v>746</v>
       </c>
       <c r="C504" t="s" s="6">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D504" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="505" ht="31.35" customHeight="1">
@@ -51116,7 +51113,7 @@
         <v>748</v>
       </c>
       <c r="C505" t="s" s="6">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D505" t="s" s="6">
         <v>1010</v>
@@ -51128,7 +51125,7 @@
         <v>749</v>
       </c>
       <c r="C506" t="s" s="6">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D506" t="s" s="6">
         <v>1010</v>
@@ -51140,10 +51137,10 @@
         <v>751</v>
       </c>
       <c r="C507" t="s" s="6">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D507" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="508" ht="13.35" customHeight="1">
@@ -51152,7 +51149,7 @@
         <v>752</v>
       </c>
       <c r="C508" t="s" s="6">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D508" t="s" s="6">
         <v>1010</v>
@@ -51164,10 +51161,10 @@
         <v>754</v>
       </c>
       <c r="C509" t="s" s="6">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D509" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="510" ht="13.35" customHeight="1">
@@ -51176,7 +51173,7 @@
         <v>755</v>
       </c>
       <c r="C510" t="s" s="6">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D510" t="s" s="6">
         <v>1010</v>
@@ -51188,7 +51185,7 @@
         <v>756</v>
       </c>
       <c r="C511" t="s" s="6">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D511" t="s" s="6">
         <v>1010</v>
@@ -51200,7 +51197,7 @@
         <v>757</v>
       </c>
       <c r="C512" t="s" s="6">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D512" t="s" s="6">
         <v>1010</v>
@@ -51212,7 +51209,7 @@
         <v>759</v>
       </c>
       <c r="C513" t="s" s="6">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D513" t="s" s="6">
         <v>1010</v>
@@ -51224,7 +51221,7 @@
         <v>760</v>
       </c>
       <c r="C514" t="s" s="6">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D514" t="s" s="6">
         <v>1010</v>
@@ -51236,7 +51233,7 @@
         <v>761</v>
       </c>
       <c r="C515" t="s" s="6">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D515" t="s" s="6">
         <v>1010</v>
@@ -51248,10 +51245,10 @@
         <v>763</v>
       </c>
       <c r="C516" t="s" s="6">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D516" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="517" ht="31.35" customHeight="1">
@@ -51260,7 +51257,7 @@
         <v>764</v>
       </c>
       <c r="C517" t="s" s="6">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D517" t="s" s="6">
         <v>1010</v>
@@ -51272,10 +51269,10 @@
         <v>765</v>
       </c>
       <c r="C518" t="s" s="6">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D518" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="519" ht="31.35" customHeight="1">
@@ -51284,10 +51281,10 @@
         <v>766</v>
       </c>
       <c r="C519" t="s" s="6">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D519" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="520" ht="13.35" customHeight="1">
@@ -51296,10 +51293,10 @@
         <v>767</v>
       </c>
       <c r="C520" t="s" s="6">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D520" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="521" ht="31.35" customHeight="1">
@@ -51308,10 +51305,10 @@
         <v>768</v>
       </c>
       <c r="C521" t="s" s="6">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D521" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="522" ht="31.35" customHeight="1">
@@ -51320,7 +51317,7 @@
         <v>769</v>
       </c>
       <c r="C522" t="s" s="6">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D522" t="s" s="6">
         <v>1010</v>
@@ -51332,10 +51329,10 @@
         <v>770</v>
       </c>
       <c r="C523" t="s" s="6">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D523" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="524" ht="31.35" customHeight="1">
@@ -51344,10 +51341,10 @@
         <v>772</v>
       </c>
       <c r="C524" t="s" s="6">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D524" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="525" ht="13.35" customHeight="1">
@@ -51356,7 +51353,7 @@
         <v>774</v>
       </c>
       <c r="C525" t="s" s="6">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D525" t="s" s="6">
         <v>1010</v>
@@ -51368,7 +51365,7 @@
         <v>776</v>
       </c>
       <c r="C526" t="s" s="6">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D526" t="s" s="6">
         <v>1010</v>
@@ -51380,10 +51377,10 @@
         <v>778</v>
       </c>
       <c r="C527" t="s" s="6">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D527" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="528" ht="13.35" customHeight="1">
@@ -51392,10 +51389,10 @@
         <v>780</v>
       </c>
       <c r="C528" t="s" s="6">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D528" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="529" ht="31.35" customHeight="1">
@@ -51404,7 +51401,7 @@
         <v>781</v>
       </c>
       <c r="C529" t="s" s="6">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D529" t="s" s="6">
         <v>1010</v>
@@ -51416,10 +51413,10 @@
         <v>782</v>
       </c>
       <c r="C530" t="s" s="6">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D530" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="531" ht="31.35" customHeight="1">
@@ -51428,10 +51425,10 @@
         <v>783</v>
       </c>
       <c r="C531" t="s" s="6">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D531" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="532" ht="31.35" customHeight="1">
@@ -51440,7 +51437,7 @@
         <v>784</v>
       </c>
       <c r="C532" t="s" s="6">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D532" t="s" s="6">
         <v>1010</v>
@@ -51452,7 +51449,7 @@
         <v>785</v>
       </c>
       <c r="C533" t="s" s="6">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D533" t="s" s="6">
         <v>1010</v>
@@ -51464,10 +51461,10 @@
         <v>786</v>
       </c>
       <c r="C534" t="s" s="6">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D534" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="535" ht="31.35" customHeight="1">
@@ -51476,7 +51473,7 @@
         <v>788</v>
       </c>
       <c r="C535" t="s" s="6">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D535" t="s" s="6">
         <v>1010</v>
@@ -51488,10 +51485,10 @@
         <v>789</v>
       </c>
       <c r="C536" t="s" s="6">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D536" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="537" ht="31.35" customHeight="1">
@@ -51500,7 +51497,7 @@
         <v>790</v>
       </c>
       <c r="C537" t="s" s="6">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D537" t="s" s="6">
         <v>1010</v>
@@ -51512,7 +51509,7 @@
         <v>792</v>
       </c>
       <c r="C538" t="s" s="6">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D538" t="s" s="6">
         <v>1010</v>
@@ -51524,7 +51521,7 @@
         <v>710</v>
       </c>
       <c r="C539" t="s" s="16">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D539" t="s" s="16">
         <v>1010</v>
@@ -51536,10 +51533,10 @@
         <v>783</v>
       </c>
       <c r="C540" t="s" s="16">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D540" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="541" ht="13.35" customHeight="1">
@@ -51548,10 +51545,10 @@
         <v>448</v>
       </c>
       <c r="C541" t="s" s="16">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D541" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="542" ht="13.35" customHeight="1">
@@ -51560,7 +51557,7 @@
         <v>76</v>
       </c>
       <c r="C542" t="s" s="16">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D542" t="s" s="16">
         <v>1010</v>
@@ -51572,10 +51569,10 @@
         <v>544</v>
       </c>
       <c r="C543" t="s" s="16">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D543" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="544" ht="31.35" customHeight="1">
@@ -51584,7 +51581,7 @@
         <v>366</v>
       </c>
       <c r="C544" t="s" s="16">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D544" t="s" s="16">
         <v>1010</v>
@@ -51596,7 +51593,7 @@
         <v>741</v>
       </c>
       <c r="C545" t="s" s="16">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D545" t="s" s="16">
         <v>1010</v>
@@ -51608,10 +51605,10 @@
         <v>739</v>
       </c>
       <c r="C546" t="s" s="16">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D546" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="547" ht="13.35" customHeight="1">
@@ -51620,7 +51617,7 @@
         <v>222</v>
       </c>
       <c r="C547" t="s" s="16">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D547" t="s" s="16">
         <v>1010</v>
@@ -51635,7 +51632,7 @@
         <v>1023</v>
       </c>
       <c r="D548" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="549" ht="13.35" customHeight="1">
@@ -51644,10 +51641,10 @@
         <v>715</v>
       </c>
       <c r="C549" t="s" s="16">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D549" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="550" ht="31.35" customHeight="1">
@@ -51656,7 +51653,7 @@
         <v>525</v>
       </c>
       <c r="C550" t="s" s="16">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D550" t="s" s="16">
         <v>1010</v>
@@ -51668,7 +51665,7 @@
         <v>781</v>
       </c>
       <c r="C551" t="s" s="16">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D551" t="s" s="16">
         <v>1010</v>
@@ -51680,10 +51677,10 @@
         <v>682</v>
       </c>
       <c r="C552" t="s" s="16">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D552" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="553" ht="31.35" customHeight="1">
@@ -51692,10 +51689,10 @@
         <v>72</v>
       </c>
       <c r="C553" t="s" s="16">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D553" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="554" ht="31.35" customHeight="1">
@@ -51704,7 +51701,7 @@
         <v>764</v>
       </c>
       <c r="C554" t="s" s="16">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D554" t="s" s="16">
         <v>1010</v>
@@ -51716,10 +51713,10 @@
         <v>751</v>
       </c>
       <c r="C555" t="s" s="16">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D555" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="556" ht="13.35" customHeight="1">
@@ -51728,7 +51725,7 @@
         <v>738</v>
       </c>
       <c r="C556" t="s" s="16">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D556" t="s" s="16">
         <v>1010</v>
@@ -51740,10 +51737,10 @@
         <v>735</v>
       </c>
       <c r="C557" t="s" s="16">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D557" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="558" ht="13.35" customHeight="1">
@@ -51752,7 +51749,7 @@
         <v>756</v>
       </c>
       <c r="C558" t="s" s="16">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D558" t="s" s="16">
         <v>1010</v>
@@ -51764,7 +51761,7 @@
         <v>798</v>
       </c>
       <c r="C559" t="s" s="6">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D559" t="s" s="6">
         <v>1010</v>
@@ -51776,10 +51773,10 @@
         <v>799</v>
       </c>
       <c r="C560" t="s" s="6">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D560" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="561" ht="31.35" customHeight="1">
@@ -51788,10 +51785,10 @@
         <v>801</v>
       </c>
       <c r="C561" t="s" s="6">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D561" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="562" ht="31.35" customHeight="1">
@@ -51800,7 +51797,7 @@
         <v>802</v>
       </c>
       <c r="C562" t="s" s="6">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D562" t="s" s="6">
         <v>1010</v>
@@ -51812,10 +51809,10 @@
         <v>804</v>
       </c>
       <c r="C563" t="s" s="6">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D563" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="564" ht="31.35" customHeight="1">
@@ -51824,10 +51821,10 @@
         <v>805</v>
       </c>
       <c r="C564" t="s" s="6">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D564" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="565" ht="13.35" customHeight="1">
@@ -51836,7 +51833,7 @@
         <v>806</v>
       </c>
       <c r="C565" t="s" s="6">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D565" t="s" s="6">
         <v>1010</v>
@@ -51848,7 +51845,7 @@
         <v>808</v>
       </c>
       <c r="C566" t="s" s="6">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D566" t="s" s="6">
         <v>1010</v>
@@ -51860,7 +51857,7 @@
         <v>810</v>
       </c>
       <c r="C567" t="s" s="6">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D567" t="s" s="6">
         <v>1010</v>
@@ -51872,10 +51869,10 @@
         <v>812</v>
       </c>
       <c r="C568" t="s" s="6">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D568" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="569" ht="31.35" customHeight="1">
@@ -51884,7 +51881,7 @@
         <v>814</v>
       </c>
       <c r="C569" t="s" s="6">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D569" t="s" s="6">
         <v>1010</v>
@@ -51896,10 +51893,10 @@
         <v>816</v>
       </c>
       <c r="C570" t="s" s="6">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D570" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="571" ht="13.35" customHeight="1">
@@ -51908,7 +51905,7 @@
         <v>817</v>
       </c>
       <c r="C571" t="s" s="6">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D571" t="s" s="6">
         <v>1010</v>
@@ -51920,7 +51917,7 @@
         <v>818</v>
       </c>
       <c r="C572" t="s" s="6">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D572" t="s" s="6">
         <v>1010</v>
@@ -51932,10 +51929,10 @@
         <v>820</v>
       </c>
       <c r="C573" t="s" s="6">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D573" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="574" ht="13.35" customHeight="1">
@@ -51944,7 +51941,7 @@
         <v>822</v>
       </c>
       <c r="C574" t="s" s="6">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D574" t="s" s="6">
         <v>1010</v>
@@ -51956,10 +51953,10 @@
         <v>823</v>
       </c>
       <c r="C575" t="s" s="6">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D575" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="576" ht="13.35" customHeight="1">
@@ -51968,10 +51965,10 @@
         <v>825</v>
       </c>
       <c r="C576" t="s" s="6">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D576" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="577" ht="31.35" customHeight="1">
@@ -51980,10 +51977,10 @@
         <v>827</v>
       </c>
       <c r="C577" t="s" s="6">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D577" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="578" ht="31.35" customHeight="1">
@@ -51992,10 +51989,10 @@
         <v>828</v>
       </c>
       <c r="C578" t="s" s="6">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D578" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="579" ht="31.35" customHeight="1">
@@ -52004,7 +52001,7 @@
         <v>829</v>
       </c>
       <c r="C579" t="s" s="6">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D579" t="s" s="6">
         <v>1010</v>
@@ -52016,10 +52013,10 @@
         <v>831</v>
       </c>
       <c r="C580" t="s" s="6">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D580" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="581" ht="13.35" customHeight="1">
@@ -52028,10 +52025,10 @@
         <v>833</v>
       </c>
       <c r="C581" t="s" s="6">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D581" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="582" ht="31.35" customHeight="1">
@@ -52040,10 +52037,10 @@
         <v>835</v>
       </c>
       <c r="C582" t="s" s="6">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D582" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="583" ht="31.35" customHeight="1">
@@ -52052,10 +52049,10 @@
         <v>836</v>
       </c>
       <c r="C583" t="s" s="6">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D583" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="584" ht="13.35" customHeight="1">
@@ -52064,10 +52061,10 @@
         <v>838</v>
       </c>
       <c r="C584" t="s" s="6">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D584" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="585" ht="31.35" customHeight="1">
@@ -52076,7 +52073,7 @@
         <v>840</v>
       </c>
       <c r="C585" t="s" s="6">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D585" t="s" s="6">
         <v>1010</v>
@@ -52088,7 +52085,7 @@
         <v>842</v>
       </c>
       <c r="C586" t="s" s="6">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D586" t="s" s="6">
         <v>1010</v>
@@ -52100,10 +52097,10 @@
         <v>844</v>
       </c>
       <c r="C587" t="s" s="6">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D587" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="588" ht="31.35" customHeight="1">
@@ -52112,7 +52109,7 @@
         <v>846</v>
       </c>
       <c r="C588" t="s" s="6">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D588" t="s" s="6">
         <v>1010</v>
@@ -52124,7 +52121,7 @@
         <v>847</v>
       </c>
       <c r="C589" t="s" s="6">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D589" t="s" s="6">
         <v>1010</v>
@@ -52136,10 +52133,10 @@
         <v>849</v>
       </c>
       <c r="C590" t="s" s="6">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D590" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="591" ht="13.35" customHeight="1">
@@ -52148,7 +52145,7 @@
         <v>851</v>
       </c>
       <c r="C591" t="s" s="6">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D591" t="s" s="6">
         <v>1010</v>
@@ -52160,7 +52157,7 @@
         <v>853</v>
       </c>
       <c r="C592" t="s" s="6">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D592" t="s" s="6">
         <v>1010</v>
@@ -52172,7 +52169,7 @@
         <v>855</v>
       </c>
       <c r="C593" t="s" s="6">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D593" t="s" s="6">
         <v>1010</v>
@@ -52184,10 +52181,10 @@
         <v>856</v>
       </c>
       <c r="C594" t="s" s="6">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D594" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="595" ht="31.35" customHeight="1">
@@ -52196,7 +52193,7 @@
         <v>857</v>
       </c>
       <c r="C595" t="s" s="6">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D595" t="s" s="6">
         <v>1010</v>
@@ -52208,7 +52205,7 @@
         <v>858</v>
       </c>
       <c r="C596" t="s" s="6">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D596" t="s" s="6">
         <v>1010</v>
@@ -52220,10 +52217,10 @@
         <v>715</v>
       </c>
       <c r="C597" t="s" s="21">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D597" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="598" ht="31.35" customHeight="1">
@@ -52232,7 +52229,7 @@
         <v>742</v>
       </c>
       <c r="C598" t="s" s="16">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D598" t="s" s="16">
         <v>1010</v>
@@ -52244,7 +52241,7 @@
         <v>802</v>
       </c>
       <c r="C599" t="s" s="16">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D599" t="s" s="16">
         <v>1010</v>
@@ -52256,7 +52253,7 @@
         <v>683</v>
       </c>
       <c r="C600" t="s" s="21">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D600" t="s" s="21">
         <v>1010</v>
@@ -52268,7 +52265,7 @@
         <v>526</v>
       </c>
       <c r="C601" t="s" s="21">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D601" t="s" s="21">
         <v>1010</v>
@@ -52280,10 +52277,10 @@
         <v>237</v>
       </c>
       <c r="C602" t="s" s="21">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D602" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="603" ht="13.35" customHeight="1">
@@ -52292,7 +52289,7 @@
         <v>76</v>
       </c>
       <c r="C603" t="s" s="21">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D603" t="s" s="21">
         <v>1010</v>
@@ -52304,10 +52301,10 @@
         <v>780</v>
       </c>
       <c r="C604" t="s" s="16">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D604" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="605" ht="31.35" customHeight="1">
@@ -52316,7 +52313,7 @@
         <v>398</v>
       </c>
       <c r="C605" t="s" s="25">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D605" t="s" s="25">
         <v>1010</v>
@@ -52328,10 +52325,10 @@
         <v>812</v>
       </c>
       <c r="C606" t="s" s="16">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D606" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="607" ht="31.35" customHeight="1">
@@ -52340,7 +52337,7 @@
         <v>846</v>
       </c>
       <c r="C607" t="s" s="16">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D607" t="s" s="16">
         <v>1010</v>
@@ -52352,10 +52349,10 @@
         <v>786</v>
       </c>
       <c r="C608" t="s" s="16">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D608" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="609" ht="13.35" customHeight="1">
@@ -52364,10 +52361,10 @@
         <v>607</v>
       </c>
       <c r="C609" t="s" s="21">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D609" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="610" ht="31.35" customHeight="1">
@@ -52376,10 +52373,10 @@
         <v>836</v>
       </c>
       <c r="C610" t="s" s="16">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D610" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="611" ht="13.35" customHeight="1">
@@ -52388,10 +52385,10 @@
         <v>364</v>
       </c>
       <c r="C611" t="s" s="25">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D611" t="s" s="25">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="612" ht="31.35" customHeight="1">
@@ -52400,10 +52397,10 @@
         <v>823</v>
       </c>
       <c r="C612" t="s" s="16">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D612" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="613" ht="13.35" customHeight="1">
@@ -52412,7 +52409,7 @@
         <v>822</v>
       </c>
       <c r="C613" t="s" s="16">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D613" t="s" s="16">
         <v>1010</v>
@@ -52424,7 +52421,7 @@
         <v>654</v>
       </c>
       <c r="C614" t="s" s="16">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D614" t="s" s="16">
         <v>1010</v>
@@ -52436,7 +52433,7 @@
         <v>707</v>
       </c>
       <c r="C615" t="s" s="16">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D615" t="s" s="16">
         <v>1010</v>
@@ -52448,10 +52445,10 @@
         <v>727</v>
       </c>
       <c r="C616" t="s" s="16">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D616" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="617" ht="31.35" customHeight="1">
@@ -52460,10 +52457,10 @@
         <v>861</v>
       </c>
       <c r="C617" t="s" s="6">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D617" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="618" ht="13.35" customHeight="1">
@@ -52472,10 +52469,10 @@
         <v>863</v>
       </c>
       <c r="C618" t="s" s="6">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D618" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="619" ht="13.35" customHeight="1">
@@ -52484,7 +52481,7 @@
         <v>864</v>
       </c>
       <c r="C619" t="s" s="6">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D619" t="s" s="6">
         <v>1010</v>
@@ -52496,7 +52493,7 @@
         <v>865</v>
       </c>
       <c r="C620" t="s" s="6">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D620" t="s" s="6">
         <v>1010</v>
@@ -52508,10 +52505,10 @@
         <v>866</v>
       </c>
       <c r="C621" t="s" s="6">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D621" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="622" ht="31.35" customHeight="1">
@@ -52520,10 +52517,10 @@
         <v>867</v>
       </c>
       <c r="C622" t="s" s="6">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D622" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="623" ht="13.35" customHeight="1">
@@ -52532,10 +52529,10 @@
         <v>868</v>
       </c>
       <c r="C623" t="s" s="6">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D623" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="624" ht="13.35" customHeight="1">
@@ -52544,10 +52541,10 @@
         <v>869</v>
       </c>
       <c r="C624" t="s" s="6">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D624" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="625" ht="31.35" customHeight="1">
@@ -52556,7 +52553,7 @@
         <v>871</v>
       </c>
       <c r="C625" t="s" s="6">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D625" t="s" s="6">
         <v>1010</v>
@@ -52568,7 +52565,7 @@
         <v>873</v>
       </c>
       <c r="C626" t="s" s="6">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D626" t="s" s="6">
         <v>1010</v>
@@ -52580,7 +52577,7 @@
         <v>874</v>
       </c>
       <c r="C627" t="s" s="6">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D627" t="s" s="6">
         <v>1010</v>
@@ -52592,10 +52589,10 @@
         <v>876</v>
       </c>
       <c r="C628" t="s" s="6">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D628" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="629" ht="31.35" customHeight="1">
@@ -52604,10 +52601,10 @@
         <v>878</v>
       </c>
       <c r="C629" t="s" s="6">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D629" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="630" ht="31.35" customHeight="1">
@@ -52616,7 +52613,7 @@
         <v>880</v>
       </c>
       <c r="C630" t="s" s="6">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D630" t="s" s="6">
         <v>1010</v>
@@ -52628,7 +52625,7 @@
         <v>882</v>
       </c>
       <c r="C631" t="s" s="6">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D631" t="s" s="6">
         <v>1010</v>
@@ -52640,7 +52637,7 @@
         <v>884</v>
       </c>
       <c r="C632" t="s" s="6">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D632" t="s" s="6">
         <v>1010</v>
@@ -52652,10 +52649,10 @@
         <v>886</v>
       </c>
       <c r="C633" t="s" s="6">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D633" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="634" ht="13.35" customHeight="1">
@@ -52664,7 +52661,7 @@
         <v>888</v>
       </c>
       <c r="C634" t="s" s="6">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D634" t="s" s="6">
         <v>1010</v>
@@ -52676,10 +52673,10 @@
         <v>889</v>
       </c>
       <c r="C635" t="s" s="6">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D635" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="636" ht="13.35" customHeight="1">
@@ -52688,7 +52685,7 @@
         <v>891</v>
       </c>
       <c r="C636" t="s" s="6">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D636" t="s" s="6">
         <v>1010</v>
@@ -52700,10 +52697,10 @@
         <v>892</v>
       </c>
       <c r="C637" t="s" s="6">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D637" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="638" ht="13.35" customHeight="1">
@@ -52712,7 +52709,7 @@
         <v>893</v>
       </c>
       <c r="C638" t="s" s="6">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D638" t="s" s="6">
         <v>1010</v>
@@ -52724,10 +52721,10 @@
         <v>895</v>
       </c>
       <c r="C639" t="s" s="6">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D639" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="640" ht="13.35" customHeight="1">
@@ -52736,7 +52733,7 @@
         <v>896</v>
       </c>
       <c r="C640" t="s" s="6">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D640" t="s" s="6">
         <v>1010</v>
@@ -52748,7 +52745,7 @@
         <v>897</v>
       </c>
       <c r="C641" t="s" s="6">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D641" t="s" s="6">
         <v>1010</v>
@@ -52760,7 +52757,7 @@
         <v>898</v>
       </c>
       <c r="C642" t="s" s="6">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D642" t="s" s="6">
         <v>1010</v>
@@ -52772,10 +52769,10 @@
         <v>899</v>
       </c>
       <c r="C643" t="s" s="6">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D643" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="644" ht="31.35" customHeight="1">
@@ -52784,10 +52781,10 @@
         <v>900</v>
       </c>
       <c r="C644" t="s" s="6">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D644" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="645" ht="31.35" customHeight="1">
@@ -52796,10 +52793,10 @@
         <v>901</v>
       </c>
       <c r="C645" t="s" s="6">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D645" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="646" ht="13.35" customHeight="1">
@@ -52808,7 +52805,7 @@
         <v>903</v>
       </c>
       <c r="C646" t="s" s="6">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D646" t="s" s="6">
         <v>1010</v>
@@ -52820,10 +52817,10 @@
         <v>904</v>
       </c>
       <c r="C647" t="s" s="6">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D647" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="648" ht="31.35" customHeight="1">
@@ -52832,10 +52829,10 @@
         <v>905</v>
       </c>
       <c r="C648" t="s" s="6">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D648" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="649" ht="13.35" customHeight="1">
@@ -52844,7 +52841,7 @@
         <v>906</v>
       </c>
       <c r="C649" t="s" s="6">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D649" t="s" s="6">
         <v>1010</v>
@@ -52856,7 +52853,7 @@
         <v>907</v>
       </c>
       <c r="C650" t="s" s="6">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D650" t="s" s="6">
         <v>1010</v>
@@ -52868,10 +52865,10 @@
         <v>909</v>
       </c>
       <c r="C651" t="s" s="6">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D651" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="652" ht="31.35" customHeight="1">
@@ -52880,10 +52877,10 @@
         <v>910</v>
       </c>
       <c r="C652" t="s" s="6">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D652" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="653" ht="31.35" customHeight="1">
@@ -52892,7 +52889,7 @@
         <v>911</v>
       </c>
       <c r="C653" t="s" s="6">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D653" t="s" s="6">
         <v>1010</v>
@@ -52904,7 +52901,7 @@
         <v>913</v>
       </c>
       <c r="C654" t="s" s="6">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D654" t="s" s="6">
         <v>1010</v>
@@ -52916,7 +52913,7 @@
         <v>914</v>
       </c>
       <c r="C655" t="s" s="6">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D655" t="s" s="6">
         <v>1010</v>
@@ -52928,10 +52925,10 @@
         <v>916</v>
       </c>
       <c r="C656" t="s" s="6">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D656" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="657" ht="13.35" customHeight="1">
@@ -52940,7 +52937,7 @@
         <v>918</v>
       </c>
       <c r="C657" t="s" s="6">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D657" t="s" s="6">
         <v>1010</v>
@@ -52952,10 +52949,10 @@
         <v>919</v>
       </c>
       <c r="C658" t="s" s="6">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D658" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="659" ht="13.35" customHeight="1">
@@ -52964,10 +52961,10 @@
         <v>920</v>
       </c>
       <c r="C659" t="s" s="6">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D659" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="660" ht="31.35" customHeight="1">
@@ -52976,10 +52973,10 @@
         <v>922</v>
       </c>
       <c r="C660" t="s" s="6">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D660" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="661" ht="31.35" customHeight="1">
@@ -52988,10 +52985,10 @@
         <v>923</v>
       </c>
       <c r="C661" t="s" s="6">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D661" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="662" ht="31.35" customHeight="1">
@@ -53000,10 +52997,10 @@
         <v>924</v>
       </c>
       <c r="C662" t="s" s="6">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D662" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="663" ht="13.35" customHeight="1">
@@ -53012,7 +53009,7 @@
         <v>926</v>
       </c>
       <c r="C663" t="s" s="6">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D663" t="s" s="6">
         <v>1010</v>
@@ -53024,7 +53021,7 @@
         <v>927</v>
       </c>
       <c r="C664" t="s" s="6">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D664" t="s" s="6">
         <v>1010</v>
@@ -53036,7 +53033,7 @@
         <v>928</v>
       </c>
       <c r="C665" t="s" s="6">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D665" t="s" s="6">
         <v>1010</v>
@@ -53048,7 +53045,7 @@
         <v>930</v>
       </c>
       <c r="C666" t="s" s="6">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D666" t="s" s="6">
         <v>1010</v>
@@ -53060,10 +53057,10 @@
         <v>931</v>
       </c>
       <c r="C667" t="s" s="6">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D667" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="668" ht="31.35" customHeight="1">
@@ -53072,7 +53069,7 @@
         <v>932</v>
       </c>
       <c r="C668" t="s" s="6">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D668" t="s" s="6">
         <v>1010</v>
@@ -53084,7 +53081,7 @@
         <v>934</v>
       </c>
       <c r="C669" t="s" s="6">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D669" t="s" s="6">
         <v>1010</v>
@@ -53096,10 +53093,10 @@
         <v>935</v>
       </c>
       <c r="C670" t="s" s="6">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D670" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="671" ht="31.35" customHeight="1">
@@ -53108,10 +53105,10 @@
         <v>936</v>
       </c>
       <c r="C671" t="s" s="6">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D671" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="672" ht="13.35" customHeight="1">
@@ -53120,10 +53117,10 @@
         <v>937</v>
       </c>
       <c r="C672" t="s" s="6">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D672" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="673" ht="13.35" customHeight="1">
@@ -53132,7 +53129,7 @@
         <v>938</v>
       </c>
       <c r="C673" t="s" s="6">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D673" t="s" s="6">
         <v>1010</v>
@@ -53144,7 +53141,7 @@
         <v>939</v>
       </c>
       <c r="C674" t="s" s="6">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D674" t="s" s="6">
         <v>1010</v>
@@ -53156,10 +53153,10 @@
         <v>941</v>
       </c>
       <c r="C675" t="s" s="6">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D675" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="676" ht="13.35" customHeight="1">
@@ -53168,7 +53165,7 @@
         <v>943</v>
       </c>
       <c r="C676" t="s" s="6">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D676" t="s" s="6">
         <v>1010</v>
@@ -53180,10 +53177,10 @@
         <v>823</v>
       </c>
       <c r="C677" t="s" s="21">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D677" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="678" ht="31.35" customHeight="1">
@@ -53192,10 +53189,10 @@
         <v>944</v>
       </c>
       <c r="C678" t="s" s="6">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D678" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="679" ht="31.35" customHeight="1">
@@ -53204,7 +53201,7 @@
         <v>781</v>
       </c>
       <c r="C679" t="s" s="21">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D679" t="s" s="21">
         <v>1010</v>
@@ -53216,7 +53213,7 @@
         <v>947</v>
       </c>
       <c r="C680" t="s" s="6">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D680" t="s" s="6">
         <v>1010</v>
@@ -53228,10 +53225,10 @@
         <v>949</v>
       </c>
       <c r="C681" t="s" s="6">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D681" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="682" ht="31.35" customHeight="1">
@@ -53240,7 +53237,7 @@
         <v>855</v>
       </c>
       <c r="C682" t="s" s="16">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D682" t="s" s="16">
         <v>1010</v>
@@ -53252,10 +53249,10 @@
         <v>751</v>
       </c>
       <c r="C683" t="s" s="21">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D683" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="684" ht="13.35" customHeight="1">
@@ -53264,7 +53261,7 @@
         <v>951</v>
       </c>
       <c r="C684" t="s" s="6">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D684" t="s" s="6">
         <v>1010</v>
@@ -53276,7 +53273,7 @@
         <v>952</v>
       </c>
       <c r="C685" t="s" s="6">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D685" t="s" s="6">
         <v>1010</v>
@@ -53288,10 +53285,10 @@
         <v>953</v>
       </c>
       <c r="C686" t="s" s="6">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D686" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="687" ht="13.35" customHeight="1">
@@ -53300,10 +53297,10 @@
         <v>954</v>
       </c>
       <c r="C687" t="s" s="6">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D687" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="688" ht="31.35" customHeight="1">
@@ -53312,10 +53309,10 @@
         <v>956</v>
       </c>
       <c r="C688" t="s" s="6">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D688" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="689" ht="13.35" customHeight="1">
@@ -53324,7 +53321,7 @@
         <v>958</v>
       </c>
       <c r="C689" t="s" s="6">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D689" t="s" s="6">
         <v>1010</v>
@@ -53336,10 +53333,10 @@
         <v>960</v>
       </c>
       <c r="C690" t="s" s="6">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D690" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="691" ht="13.35" customHeight="1">
@@ -53348,7 +53345,7 @@
         <v>961</v>
       </c>
       <c r="C691" t="s" s="6">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D691" t="s" s="6">
         <v>1010</v>
@@ -53360,7 +53357,7 @@
         <v>963</v>
       </c>
       <c r="C692" t="s" s="6">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D692" t="s" s="6">
         <v>1010</v>
@@ -53372,7 +53369,7 @@
         <v>964</v>
       </c>
       <c r="C693" t="s" s="6">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D693" t="s" s="6">
         <v>1010</v>
@@ -53384,10 +53381,10 @@
         <v>966</v>
       </c>
       <c r="C694" t="s" s="6">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D694" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="695" ht="13.35" customHeight="1">
@@ -53396,7 +53393,7 @@
         <v>967</v>
       </c>
       <c r="C695" t="s" s="6">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D695" t="s" s="6">
         <v>1010</v>
@@ -53408,10 +53405,10 @@
         <v>969</v>
       </c>
       <c r="C696" t="s" s="6">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D696" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="697" ht="13.35" customHeight="1">
@@ -53420,7 +53417,7 @@
         <v>970</v>
       </c>
       <c r="C697" t="s" s="6">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D697" t="s" s="6">
         <v>1010</v>
@@ -53432,7 +53429,7 @@
         <v>972</v>
       </c>
       <c r="C698" t="s" s="6">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D698" t="s" s="6">
         <v>1010</v>
@@ -53444,7 +53441,7 @@
         <v>973</v>
       </c>
       <c r="C699" t="s" s="6">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D699" t="s" s="6">
         <v>1010</v>
@@ -53456,10 +53453,10 @@
         <v>975</v>
       </c>
       <c r="C700" t="s" s="6">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D700" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="701" ht="13.35" customHeight="1">
@@ -53468,7 +53465,7 @@
         <v>976</v>
       </c>
       <c r="C701" t="s" s="6">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D701" t="s" s="6">
         <v>1010</v>
@@ -53480,7 +53477,7 @@
         <v>977</v>
       </c>
       <c r="C702" t="s" s="6">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D702" t="s" s="6">
         <v>1010</v>
@@ -53492,10 +53489,10 @@
         <v>979</v>
       </c>
       <c r="C703" t="s" s="6">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D703" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="704" ht="31.35" customHeight="1">
@@ -53504,10 +53501,10 @@
         <v>981</v>
       </c>
       <c r="C704" t="s" s="6">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D704" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="705" ht="31.35" customHeight="1">
@@ -53516,10 +53513,10 @@
         <v>983</v>
       </c>
       <c r="C705" t="s" s="6">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D705" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="706" ht="31.35" customHeight="1">
@@ -53528,10 +53525,10 @@
         <v>984</v>
       </c>
       <c r="C706" t="s" s="6">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D706" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="707" ht="13.35" customHeight="1">
@@ -53540,7 +53537,7 @@
         <v>986</v>
       </c>
       <c r="C707" t="s" s="6">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D707" t="s" s="6">
         <v>1010</v>
@@ -53552,10 +53549,10 @@
         <v>987</v>
       </c>
       <c r="C708" t="s" s="6">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D708" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="709" ht="31.35" customHeight="1">
@@ -53564,10 +53561,10 @@
         <v>989</v>
       </c>
       <c r="C709" t="s" s="6">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D709" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="710" ht="31.35" customHeight="1">
@@ -53576,10 +53573,10 @@
         <v>991</v>
       </c>
       <c r="C710" t="s" s="6">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D710" t="s" s="6">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="711" ht="13.35" customHeight="1">
@@ -53588,7 +53585,7 @@
         <v>993</v>
       </c>
       <c r="C711" t="s" s="6">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D711" t="s" s="6">
         <v>1010</v>
@@ -53600,7 +53597,7 @@
         <v>994</v>
       </c>
       <c r="C712" t="s" s="6">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D712" t="s" s="6">
         <v>1010</v>
@@ -53612,10 +53609,10 @@
         <v>996</v>
       </c>
       <c r="C713" t="s" s="21">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D713" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="714" ht="13.35" customHeight="1">
@@ -53624,10 +53621,10 @@
         <v>343</v>
       </c>
       <c r="C714" t="s" s="16">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D714" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="715" ht="31.35" customHeight="1">
@@ -53636,7 +53633,7 @@
         <v>123</v>
       </c>
       <c r="C715" t="s" s="21">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D715" t="s" s="21">
         <v>1010</v>
@@ -53648,7 +53645,7 @@
         <v>135</v>
       </c>
       <c r="C716" t="s" s="29">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D716" t="s" s="29">
         <v>1010</v>
@@ -53660,10 +53657,10 @@
         <v>237</v>
       </c>
       <c r="C717" t="s" s="25">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D717" t="s" s="25">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="718" ht="31.35" customHeight="1">
@@ -53672,10 +53669,10 @@
         <v>392</v>
       </c>
       <c r="C718" t="s" s="25">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D718" t="s" s="25">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="719" ht="31.35" customHeight="1">
@@ -53684,7 +53681,7 @@
         <v>400</v>
       </c>
       <c r="C719" t="s" s="16">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D719" t="s" s="16">
         <v>1010</v>
@@ -53696,7 +53693,7 @@
         <v>913</v>
       </c>
       <c r="C720" t="s" s="16">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D720" t="s" s="16">
         <v>1010</v>
@@ -53708,7 +53705,7 @@
         <v>858</v>
       </c>
       <c r="C721" t="s" s="16">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D721" t="s" s="16">
         <v>1010</v>
@@ -53720,7 +53717,7 @@
         <v>515</v>
       </c>
       <c r="C722" t="s" s="25">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D722" t="s" s="25">
         <v>1010</v>
@@ -53732,10 +53729,10 @@
         <v>637</v>
       </c>
       <c r="C723" t="s" s="16">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D723" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="724" ht="31.35" customHeight="1">
@@ -53744,10 +53741,10 @@
         <v>1000</v>
       </c>
       <c r="C724" t="s" s="16">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D724" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="725" ht="13.35" customHeight="1">
@@ -53756,7 +53753,7 @@
         <v>756</v>
       </c>
       <c r="C725" t="s" s="21">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D725" t="s" s="21">
         <v>1010</v>
@@ -53768,7 +53765,7 @@
         <v>939</v>
       </c>
       <c r="C726" t="s" s="16">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D726" t="s" s="16">
         <v>1010</v>
@@ -53780,10 +53777,10 @@
         <v>685</v>
       </c>
       <c r="C727" t="s" s="16">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D727" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="728" ht="13.35" customHeight="1">
@@ -53792,7 +53789,7 @@
         <v>888</v>
       </c>
       <c r="C728" t="s" s="16">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D728" t="s" s="16">
         <v>1010</v>
@@ -53804,10 +53801,10 @@
         <v>727</v>
       </c>
       <c r="C729" t="s" s="21">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D729" t="s" s="21">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="730" ht="13.35" customHeight="1">
@@ -53816,10 +53813,10 @@
         <v>825</v>
       </c>
       <c r="C730" t="s" s="16">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D730" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="731" ht="13.35" customHeight="1">
@@ -53828,10 +53825,10 @@
         <v>767</v>
       </c>
       <c r="C731" t="s" s="16">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D731" t="s" s="16">
-        <v>1026</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="732" ht="31.35" customHeight="1">
@@ -53840,7 +53837,7 @@
         <v>742</v>
       </c>
       <c r="C732" t="s" s="21">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D732" t="s" s="21">
         <v>1010</v>
@@ -54611,7 +54608,7 @@
         <v>1004</v>
       </c>
       <c r="B1" t="s" s="53">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
@@ -54619,7 +54616,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="55">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
@@ -54627,7 +54624,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="57">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
@@ -54635,7 +54632,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="58">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -54643,7 +54640,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="59">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -54651,7 +54648,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="57">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -54659,7 +54656,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s" s="57">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -54667,7 +54664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s" s="57">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -54675,7 +54672,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s" s="60">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -54683,7 +54680,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s" s="57">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -54691,7 +54688,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="57">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -54699,7 +54696,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s" s="57">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -54707,7 +54704,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s" s="57">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -54715,7 +54712,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="57">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -54723,7 +54720,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="57">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -54731,7 +54728,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s" s="57">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -54739,7 +54736,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s" s="60">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -54747,7 +54744,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s" s="57">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -54755,7 +54752,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s" s="57">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -54763,7 +54760,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s" s="57">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -54771,7 +54768,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s" s="60">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -54779,7 +54776,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="57">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -54787,7 +54784,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s" s="61">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -54795,7 +54792,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s" s="57">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -54803,7 +54800,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s" s="57">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -54811,7 +54808,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s" s="57">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -54819,7 +54816,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s" s="57">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -54827,7 +54824,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s" s="62">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -54835,7 +54832,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s" s="57">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -54843,7 +54840,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s" s="57">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -54851,7 +54848,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s" s="57">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -54859,7 +54856,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s" s="60">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -54867,7 +54864,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s" s="57">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -54875,7 +54872,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s" s="57">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -54883,7 +54880,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s" s="60">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="36" ht="31.35" customHeight="1">
@@ -54891,7 +54888,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s" s="57">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -54899,7 +54896,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s" s="57">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -54907,7 +54904,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s" s="57">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -54915,7 +54912,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s" s="61">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -54923,7 +54920,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s" s="57">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -54931,7 +54928,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s" s="63">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
